--- a/Excel/2.1 Esign - API Only.xlsx
+++ b/Excel/2.1 Esign - API Only.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="11" windowHeight="6950" windowWidth="18350"/>
+    <workbookView activeTab="6" firstSheet="6" windowHeight="8130" windowWidth="18350"/>
   </bookViews>
   <sheets>
     <sheet name="API Resend Activation Link" r:id="rId1" sheetId="1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="271">
   <si>
     <t>Status</t>
   </si>
@@ -664,7 +664,7 @@
     <t>http://gdkwebsvr:8080/i/reg?code=kBKMnrRSQajsdIdR8ygeWg%3D%3D</t>
   </si>
   <si>
-    <t>http://gdkwebsvr:8080/i/reg?code=lOMR3L3V85Q18Rspywl4+w%3D%3D</t>
+    <t>http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D</t>
   </si>
   <si>
     <t>Unexecuted</t>
@@ -709,9 +709,6 @@
     <t>;&lt;Tidak bisa mengirimkan OTP ke USERCCRA@GMAIL.COM&gt;</t>
   </si>
   <si>
-    <t>;Key yang diencrypt pada URL tidak terdapat di DB;&lt;Link registrasi tidak valid.&gt;</t>
-  </si>
-  <si>
     <t>Hit dengan email invalid</t>
   </si>
   <si>
@@ -725,8 +722,8 @@
   <si>
     <t>{
     "status": {
-        "code": 7001,
-        "message": "Link registrasi tidak valid."
+        "code": 7019,
+        "message": "Link terpotong pada saat copy dari eSignHub. Mohon copy link dengan benar dan lengkap. Silahkan coba kembali."
     }
 }</t>
   </si>
@@ -743,10 +740,10 @@
     <t>0.14 second</t>
   </si>
   <si>
-    <t>0.375 second</t>
-  </si>
-  <si>
-    <t>1.589 second</t>
+    <t>1.281 second</t>
+  </si>
+  <si>
+    <t>1.191 second</t>
   </si>
   <si>
     <t>OTP before</t>
@@ -755,13 +752,16 @@
     <t>453094</t>
   </si>
   <si>
+    <t>381370</t>
+  </si>
+  <si>
+    <t>OTP latest</t>
+  </si>
+  <si>
     <t>379541</t>
   </si>
   <si>
-    <t>OTP latest</t>
-  </si>
-  <si>
-    <t>305518</t>
+    <t>290839</t>
   </si>
   <si>
     <t>USERCCRA@GMAIL.COM</t>
@@ -770,7 +770,13 @@
     <t>USERBAAA@ESIGNHUB.MY.ID</t>
   </si>
   <si>
-    <t>http://gdkwebsvr:8080/i/reg?code=sP4CMoLA%2FM048p%2BOZCVxrA%3D%3D</t>
+    <t>https://gdkwebsvr:8080/i/reg?code=sP4CMoLA%2FM048p%2BOZCVxrA%3D%3D</t>
+  </si>
+  <si>
+    <t>http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnncZenQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://gdkwebsvr:8080/i/reg?code=Qiw5KLtlFTTA3W5ZBqPoiQ%3D%3D</t>
   </si>
   <si>
     <t>Vendor Code</t>
@@ -786,6 +792,9 @@
   </si>
   <si>
     <t>;&lt;Tidak bisa memverifikasi OTP ke SHIAPA@GMAIL.COM&gt;</t>
+  </si>
+  <si>
+    <t>;Key yang diencrypt pada URL tidak terdapat di DB;&lt;Link registrasi tidak valid.&gt;</t>
   </si>
   <si>
     <t>Hit dengan base url yang salah</t>
@@ -821,6 +830,14 @@
     "status": {
         "code": 7004,
         "message": "Tidak bisa memverifikasi OTP ke SHIAPA@GMAIL.COM"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 7001,
+        "message": "Link registrasi tidak valid."
     }
 }</t>
   </si>
@@ -1125,65 +1142,12 @@
     <t>PRIVY</t>
   </si>
   <si>
-    <t>UNexecuted</t>
-  </si>
-  <si>
     <t>{
     "status": {
         "code": 7001,
         "message": "Tidak ada Invitation Link yang cocok dengan data yang disediakan."
     }
 }</t>
-  </si>
-  <si>
-    <t>{
-    "status": {
-        "code": 0,
-        "message": "Success"
-    },
-    "link": "https://gdkwebsvr:8080/i/reg?code=%2FJGfxGISrT%2BXq8U6bMFodw%3D%3D"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "status": {
-        "code": 0,
-        "message": "Success"
-    },
-    "link": "https://gdkwebsvr:8080/i/reg?code=7UKv4YTYEdm5HJF7gtujKQ%3D%3D"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "status": {
-        "code": 0,
-        "message": "Success"
-    },
-    "link": "https://gdkwebsvr:8080/i/reg?code=8dF7rtg0rZ8q0D8Ju8EeaQ%3D%3D"
-}</t>
-  </si>
-  <si>
-    <t>0.135 second</t>
-  </si>
-  <si>
-    <t>0.146 second</t>
-  </si>
-  <si>
-    <t>0.136 second</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>{
-    "status": {
-        "code": 0,
-        "message": "Undangan terkirim ke USERCIFH@ESIGNHUB.MY.ID"
-    }
-}</t>
-  </si>
-  <si>
-    <t>USERCIFH@ESIGNHUB.MY.ID</t>
   </si>
   <si>
     <t>{
@@ -1195,9 +1159,6 @@
 }</t>
   </si>
   <si>
-    <t>https://gdkwebsvr:8080/i/reg?code=Yjeyc6uRKvh3nPeVI6j2DQ%3D%3D</t>
-  </si>
-  <si>
     <t>{
     "status": {
         "code": 0,
@@ -1207,12 +1168,6 @@
 }</t>
   </si>
   <si>
-    <t>0.149 second</t>
-  </si>
-  <si>
-    <t>https://gdkwebsvr:8080/i/reg?code=ZaUya1yZ2IODIrwo%2BKJYoQ%3D%3D</t>
-  </si>
-  <si>
     <t>{
     "status": {
         "code": 0,
@@ -1222,7 +1177,42 @@
 }</t>
   </si>
   <si>
-    <t>https://gdkwebsvr:8080/i/reg?code=Qiw5KLtlFTTA3W5ZBqPoiQ%3D%3D</t>
+    <t>0.135 second</t>
+  </si>
+  <si>
+    <t>0.149 second</t>
+  </si>
+  <si>
+    <t>https://gdkwebsvr:8080/i/reg?code=Yjeyc6uRKvh3nPeVI6j2DQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://gdkwebsvr:8080/i/reg?code=ZaUya1yZ2IODIrwo%2BKJYoQ%3D%3D</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0,
+        "message": "Undangan terkirim ke USERCIFH@ESIGNHUB.MY.ID"
+    }
+}</t>
+  </si>
+  <si>
+    <t>USERCIFH@ESIGNHUB.MY.ID</t>
+  </si>
+  <si>
+    <t>;Link gagal di-decrypt</t>
+  </si>
+  <si>
+    <t>1.154 second</t>
+  </si>
+  <si>
+    <t>;Link gagal di-decrypt;&lt;Link terpotong pada saat copy dari eSignHub. Mohon copy link dengan benar dan lengkap. Silahkan coba kembali.&gt;</t>
+  </si>
+  <si>
+    <t>0.128 second</t>
+  </si>
+  <si>
+    <t>944421</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1262,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,7 +1270,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1414,12 +1404,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -1796,10 +1786,10 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="4" fontId="0" numFmtId="0">
@@ -1928,7 +1918,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1951,6 +1941,8 @@
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="6"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="6"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -2432,10 +2424,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
@@ -2485,19 +2477,19 @@
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2799,22 +2791,22 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row ht="29" r="3" spans="1:9">
@@ -2825,25 +2817,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2915,22 +2907,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -2941,28 +2933,28 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3025,57 +3017,57 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3093,7 +3085,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>40</v>
@@ -3122,7 +3114,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B17">
         <v>123333</v>
@@ -3381,7 +3373,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -3398,10 +3390,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3470,10 +3462,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3481,10 +3473,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3501,16 +3493,16 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3532,7 +3524,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3720,13 +3712,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -3735,22 +3727,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3811,19 +3803,19 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="1" spans="1:7">
@@ -3832,7 +3824,7 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -3841,10 +3833,10 @@
         <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3852,10 +3844,10 @@
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3988,27 +3980,27 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
@@ -4042,7 +4034,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>40</v>
@@ -4065,13 +4057,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>43</v>
@@ -4120,7 +4112,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>43</v>
@@ -4438,7 +4430,7 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
@@ -4471,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row ht="15.25" r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -4490,22 +4482,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4565,19 +4557,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4585,7 +4577,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
         <v>112</v>
@@ -4594,7 +4586,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -4605,13 +4597,13 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G10" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4753,7 +4745,7 @@
         <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F18" t="s">
         <v>167</v>
@@ -4764,7 +4756,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
@@ -4798,7 +4790,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>40</v>
@@ -4821,13 +4813,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>43</v>
@@ -4876,7 +4868,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>43</v>
@@ -5069,13 +5061,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row ht="29" r="3" spans="1:7">
@@ -5083,22 +5075,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5158,19 +5150,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row customFormat="1" r="9" spans="1:7">
@@ -5181,13 +5173,13 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
         <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
         <v>114</v>
@@ -5323,27 +5315,27 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>31</v>
@@ -5377,7 +5369,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>40</v>
@@ -5400,13 +5392,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>43</v>
@@ -5455,7 +5447,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>43</v>
@@ -5743,7 +5735,7 @@
     <row r="7" spans="1:1">
       <c r="A7" s="6"/>
     </row>
-    <row customFormat="1" r="8" s="18" spans="1:2">
+    <row customFormat="1" r="8" s="20" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -5818,22 +5810,22 @@
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5975,20 +5967,20 @@
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="21" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6042,22 +6034,22 @@
       <c r="A24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="21" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6065,20 +6057,20 @@
       <c r="A25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="21" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6232,7 +6224,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -6266,7 +6258,7 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -6289,7 +6281,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="18" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -6312,25 +6304,25 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="21" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6405,7 +6397,7 @@
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B42" s="6"/>
@@ -6655,19 +6647,19 @@
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7154,19 +7146,19 @@
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7224,19 +7216,19 @@
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7348,19 +7340,19 @@
       <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7408,19 +7400,19 @@
       <c r="A27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="21" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7428,19 +7420,19 @@
       <c r="A28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7657,7 +7649,7 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B41" s="6"/>
@@ -7830,7 +7822,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -8020,7 +8012,7 @@
       <c r="D13" t="s">
         <v>143</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="16" t="s">
         <v>144</v>
       </c>
       <c r="F13" t="s">
@@ -8234,6 +8226,9 @@
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" r:id="rId1" ref="E13" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
@@ -8245,7 +8240,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -8394,7 +8389,7 @@
       <c r="C13" t="s">
         <v>143</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="16" t="s">
         <v>144</v>
       </c>
       <c r="E13" t="s">
@@ -8497,6 +8492,9 @@
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" r:id="rId1" ref="D13" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
@@ -8507,8 +8505,8 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -8540,7 +8538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:6">
+    <row ht="15.25" r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8554,7 +8552,7 @@
         <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
     </row>
     <row ht="29" r="3" spans="1:7">
@@ -8571,7 +8569,7 @@
         <v>133</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>134</v>
@@ -8591,7 +8589,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>53</v>
@@ -8643,10 +8641,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
         <v>153</v>
-      </c>
-      <c r="F8" t="s">
-        <v>154</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -8657,44 +8655,45 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
         <v>155</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>156</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>157</v>
       </c>
-      <c r="E9" t="s">
-        <v>158</v>
-      </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="D10" t="s">
         <v>161</v>
       </c>
-      <c r="D10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" t="s">
-        <v>163</v>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
         <v>164</v>
       </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8776,21 +8775,21 @@
         <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
         <v>143</v>
       </c>
-      <c r="F16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" t="s">
-        <v>168</v>
+      <c r="F16" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>31</v>
@@ -8824,7 +8823,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>40</v>
@@ -8847,7 +8846,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>43</v>
@@ -9009,6 +9008,10 @@
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink display="https://gdkwebsvr:8080/i/reg?code=Qiw5KLtlFTTA3W5ZBqPoiQ%3D%3D" r:id="rId1" ref="G16"/>
+    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnncZenQ%3D%3D" r:id="rId2" ref="F16" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnncZenQ%3D%3D"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
@@ -9019,8 +9022,8 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -9063,16 +9066,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row ht="29" r="3" spans="1:8">
@@ -9080,25 +9083,25 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9164,16 +9167,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -9187,25 +9190,25 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
         <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9266,19 +9269,19 @@
         <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>67</v>
@@ -9292,19 +9295,19 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H14" t="s">
         <v>143</v>
@@ -9312,7 +9315,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>31</v>
@@ -9350,7 +9353,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>40</v>
@@ -9376,7 +9379,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>43</v>
@@ -9402,7 +9405,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>40</v>
@@ -9428,7 +9431,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B20">
         <v>123333</v>
@@ -9591,6 +9594,9 @@
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" r:id="rId1" ref="F14" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
@@ -9644,22 +9650,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9719,7 +9725,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9727,7 +9733,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9746,22 +9752,22 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9769,22 +9775,22 @@
         <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9792,22 +9798,22 @@
         <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9826,22 +9832,22 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9860,27 +9866,27 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>31</v>
@@ -9914,7 +9920,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>40</v>
@@ -9937,7 +9943,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>43</v>

--- a/Excel/2.1 Esign - API Only.xlsx
+++ b/Excel/2.1 Esign - API Only.xlsx
@@ -4,44 +4,44 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="34" firstSheet="32" windowHeight="6950" windowWidth="18350"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="24" activeTab="26"/>
   </bookViews>
   <sheets>
-    <sheet name="API Resend Activation Link" r:id="rId1" sheetId="1"/>
-    <sheet name="API Gen Inv Link Secured" r:id="rId2" sheetId="2"/>
-    <sheet name="API Get Data Inv Regist" r:id="rId3" sheetId="3"/>
-    <sheet name="API Update Data Inv Regist" r:id="rId4" sheetId="4"/>
-    <sheet name="API Vendor List Inv Regist" r:id="rId5" sheetId="5"/>
-    <sheet name="API Invitation Register Data" r:id="rId6" sheetId="6"/>
-    <sheet name="API Send OTP Email Invitation" r:id="rId7" sheetId="9"/>
-    <sheet name="API Check OTP Email Invitation" r:id="rId8" sheetId="8"/>
-    <sheet name="API Get User Data" r:id="rId9" sheetId="10"/>
-    <sheet name="API Reset Password" r:id="rId10" sheetId="11"/>
-    <sheet name="API Get Tenant Settings" r:id="rId11" sheetId="13"/>
-    <sheet name="API Get Invitation Link" r:id="rId12" sheetId="14"/>
-    <sheet name="API Regenerate Invitation" r:id="rId13" sheetId="15"/>
-    <sheet name="API Resend Invitation" r:id="rId14" sheetId="16"/>
-    <sheet name="API Sent OTP Activation User" r:id="rId15" sheetId="17"/>
-    <sheet name="API Verify OTP Activation User" r:id="rId16" sheetId="23"/>
-    <sheet name="API Update Activation User" r:id="rId17" sheetId="24"/>
-    <sheet name="API Inquiry" r:id="rId18" sheetId="25"/>
-    <sheet name="API Vendor" r:id="rId19" sheetId="26"/>
-    <sheet name="API Lov" r:id="rId20" sheetId="27"/>
-    <sheet name="API RegionList" r:id="rId21" sheetId="28"/>
-    <sheet name="API OfficeList" r:id="rId22" sheetId="29"/>
-    <sheet name="API View Document" r:id="rId23" sheetId="30"/>
-    <sheet name="API View Signer" r:id="rId24" sheetId="31"/>
-    <sheet name="API Confirm Sign Document" r:id="rId25" sheetId="32"/>
-    <sheet name="API Save" r:id="rId26" sheetId="33"/>
-    <sheet name="API Inquiry Normal" r:id="rId27" sheetId="34"/>
-    <sheet name="API Sign Document -s" r:id="rId28" sheetId="35"/>
-    <sheet name="API Get Signer Detail" r:id="rId29" sheetId="36"/>
-    <sheet name="API Sign Balance Availability" r:id="rId30" sheetId="37"/>
-    <sheet name="API Check Liveness FC" r:id="rId31" sheetId="38"/>
-    <sheet name="API Signer Data Verification" r:id="rId32" sheetId="39"/>
-    <sheet name="API Sent OTP Signing Verif" r:id="rId33" sheetId="40"/>
-    <sheet name="API Verify OTP Signing Verif" r:id="rId34" sheetId="41"/>
-    <sheet name="API Verify Liveness Face Comp" r:id="rId35" sheetId="42"/>
+    <sheet name="API Resend Activation Link" sheetId="1" r:id="rId1"/>
+    <sheet name="API Gen Inv Link Secured" sheetId="2" r:id="rId2"/>
+    <sheet name="API Get Data Inv Regist" sheetId="3" r:id="rId3"/>
+    <sheet name="API Update Data Inv Regist" sheetId="4" r:id="rId4"/>
+    <sheet name="API Vendor List Inv Regist" sheetId="5" r:id="rId5"/>
+    <sheet name="API Invitation Register Data" sheetId="6" r:id="rId6"/>
+    <sheet name="API Send OTP Email Invitation" sheetId="9" r:id="rId7"/>
+    <sheet name="API Check OTP Email Invitation" sheetId="8" r:id="rId8"/>
+    <sheet name="API Get User Data" sheetId="10" r:id="rId9"/>
+    <sheet name="API Reset Password" sheetId="11" r:id="rId10"/>
+    <sheet name="API Get Tenant Settings" sheetId="13" r:id="rId11"/>
+    <sheet name="API Get Invitation Link" sheetId="14" r:id="rId12"/>
+    <sheet name="API Regenerate Invitation" sheetId="15" r:id="rId13"/>
+    <sheet name="API Resend Invitation" sheetId="16" r:id="rId14"/>
+    <sheet name="API Sent OTP Activation User" sheetId="17" r:id="rId15"/>
+    <sheet name="API Verify OTP Activation User" sheetId="23" r:id="rId16"/>
+    <sheet name="API Update Activation User" sheetId="24" r:id="rId17"/>
+    <sheet name="API Inquiry" sheetId="25" r:id="rId18"/>
+    <sheet name="API Vendor" sheetId="26" r:id="rId19"/>
+    <sheet name="API Lov" sheetId="27" r:id="rId20"/>
+    <sheet name="API RegionList" sheetId="28" r:id="rId21"/>
+    <sheet name="API OfficeList" sheetId="29" r:id="rId22"/>
+    <sheet name="API View Document" sheetId="30" r:id="rId23"/>
+    <sheet name="API View Signer" sheetId="31" r:id="rId24"/>
+    <sheet name="API Confirm Sign Document" sheetId="32" r:id="rId25"/>
+    <sheet name="API Save" sheetId="33" r:id="rId26"/>
+    <sheet name="API Inquiry Normal" sheetId="34" r:id="rId27"/>
+    <sheet name="API Sign Document -s" sheetId="35" r:id="rId28"/>
+    <sheet name="API Get Signer Detail" sheetId="36" r:id="rId29"/>
+    <sheet name="API Sign Balance Availability" sheetId="37" r:id="rId30"/>
+    <sheet name="API Check Liveness FC" sheetId="38" r:id="rId31"/>
+    <sheet name="API Signer Data Verification" sheetId="39" r:id="rId32"/>
+    <sheet name="API Sent OTP Signing Verif" sheetId="40" r:id="rId33"/>
+    <sheet name="API Verify OTP Signing Verif" sheetId="41" r:id="rId34"/>
+    <sheet name="API Verify Liveness Face Comp" sheetId="42" r:id="rId35"/>
   </sheets>
   <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
@@ -53,7 +53,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A22">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A25">
+    <comment ref="A25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="695">
   <si>
     <t>Status</t>
   </si>
@@ -5912,6 +5912,9 @@
     <t>47.768 second</t>
   </si>
   <si>
+    <t>53.995 second</t>
+  </si>
+  <si>
     <t>selfPhoto</t>
   </si>
   <si>
@@ -5928,9 +5931,6 @@
   </si>
   <si>
     <t>enter Correct base64 SelfPhoto</t>
-  </si>
-  <si>
-    <t>53.995 second</t>
   </si>
 </sst>
 </file>
@@ -6634,312 +6634,312 @@
     </border>
   </borders>
   <cellStyleXfs count="53">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="6" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="15" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="15" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="16" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="7" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="18" fillId="8" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="8" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="9" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="20" fillId="0" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="21" fillId="0" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="35" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="36" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="64">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="52"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="52" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="6">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="6">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="6"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="6"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="50"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="50"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="50"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="50"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="6"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="6"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="53">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="4" name="Currency" xfId="2"/>
-    <cellStyle builtinId="5" name="Percent" xfId="3"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="4"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="6"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="7"/>
-    <cellStyle builtinId="10" name="Note" xfId="8"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="9"/>
-    <cellStyle builtinId="15" name="Title" xfId="10"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="11"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="12"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="13"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="14"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="15"/>
-    <cellStyle builtinId="20" name="Input" xfId="16"/>
-    <cellStyle builtinId="21" name="Output" xfId="17"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="18"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="19"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="20"/>
-    <cellStyle builtinId="25" name="Total" xfId="21"/>
-    <cellStyle builtinId="26" name="Good" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="24"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="25"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="26"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="27"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="28"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="29"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="30"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="31"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="32"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="33"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="34"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="35"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="36"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="37"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="38"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="39"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="40"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="41"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="42"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="43"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="44"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="45"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
     <cellStyle name="Normal 2" xfId="49"/>
     <cellStyle name="Normal 2 4" xfId="50"/>
     <cellStyle name="Normal 2 2" xfId="51"/>
@@ -6994,7 +6994,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7008,10 +7008,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -7175,21 +7175,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7206,7 +7206,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -7259,9 +7259,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -7269,8 +7269,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7293,7 +7293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:5">
+    <row r="2" ht="15.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:6">
+    <row r="3" ht="29" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -7497,7 +7497,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row customHeight="1" ht="15" r="16" spans="1:6">
+    <row r="16" ht="15" customHeight="1" spans="1:6">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
@@ -7621,72 +7621,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="21" type="expression">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="22" type="expression">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="23" type="expression">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="24" type="expression">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="9" type="expression">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>B$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>C$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>D$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>E$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21 F21">
-    <cfRule dxfId="4" priority="26" type="expression">
+    <cfRule type="expression" dxfId="4" priority="26">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20 C20 D20 E20 F20 B22 C22 D22 E22 F22" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 C20 D20 E20 F20 B22 C22 D22 E22 F22">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -7694,8 +7694,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="9" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7727,7 +7727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:8">
+    <row r="2" ht="15.25" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:9">
+    <row r="3" ht="29" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -8102,185 +8102,185 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="42" type="expression">
+    <cfRule type="expression" dxfId="0" priority="42">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="43" type="expression">
+    <cfRule type="expression" dxfId="1" priority="43">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="44" type="expression">
+    <cfRule type="expression" dxfId="2" priority="44">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="45" type="expression">
+    <cfRule type="expression" dxfId="3" priority="45">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="3" priority="35" type="expression">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="34" type="expression">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="33" type="expression">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="32" type="expression">
+    <cfRule type="expression" dxfId="0" priority="32">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="30" type="expression">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="29" type="expression">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="28" type="expression">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="27" type="expression">
+    <cfRule type="expression" dxfId="0" priority="27">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="20" type="expression">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="19" type="expression">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="18" type="expression">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="17" type="expression">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="0" priority="22" type="expression">
+    <cfRule type="expression" dxfId="0" priority="22">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="23" type="expression">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="24" type="expression">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="25" type="expression">
+    <cfRule type="expression" dxfId="3" priority="25">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="3" priority="15" type="expression">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="14" type="expression">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="13" type="expression">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="12" type="expression">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule dxfId="3" priority="10" type="expression">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="9" type="expression">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="8" type="expression">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="7" type="expression">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule dxfId="3" priority="5" type="expression">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>H1&lt;&gt;H4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="4" type="expression">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>H1=H4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="3" type="expression">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>H1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="2" type="expression">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule dxfId="0" priority="37" type="expression">
+    <cfRule type="expression" dxfId="0" priority="37">
       <formula>OR(I1="",I1="Unexecuted",I1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="38" type="expression">
+    <cfRule type="expression" dxfId="1" priority="38">
       <formula>I1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="39" type="expression">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>I1=I4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="40" type="expression">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>I1&lt;&gt;I4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule dxfId="6" priority="31" type="expression">
+    <cfRule type="expression" dxfId="6" priority="31">
       <formula>B$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule dxfId="6" priority="26" type="expression">
+    <cfRule type="expression" dxfId="6" priority="26">
       <formula>C$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule dxfId="6" priority="16" type="expression">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>D$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule dxfId="6" priority="21" type="expression">
+    <cfRule type="expression" dxfId="6" priority="21">
       <formula>E$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule dxfId="6" priority="11" type="expression">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>F$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule dxfId="6" priority="6" type="expression">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>G$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule dxfId="6" priority="1" type="expression">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>H$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule dxfId="6" priority="36" type="expression">
+    <cfRule type="expression" dxfId="6" priority="36">
       <formula>I$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16 C16 D16 E16 F16 G16 H16 I16 B18 C18 D18 E18 F18 G18 H18 I18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16 D16 E16 F16 G16 H16 I16 B18 C18 D18 E18 F18 G18 H18 I18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -8288,8 +8288,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5454545454545" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="29.9090909090909" collapsed="true"/>
+    <col min="1" max="1" width="23.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="29.9090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8309,7 +8309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:4">
+    <row r="2" ht="15.25" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8548,72 +8548,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="34" type="expression">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="33" type="expression">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="32" type="expression">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="31" type="expression">
+    <cfRule type="expression" dxfId="0" priority="31">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule dxfId="3" priority="23" type="expression">
+    <cfRule type="expression" dxfId="3" priority="23">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="22" type="expression">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="21" type="expression">
+    <cfRule type="expression" dxfId="1" priority="21">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="20" type="expression">
+    <cfRule type="expression" dxfId="0" priority="20">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule dxfId="4" priority="35" type="expression">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>A$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule dxfId="4" priority="24" type="expression">
+    <cfRule type="expression" dxfId="4" priority="24">
       <formula>B$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule dxfId="4" priority="18" type="expression">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>C$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule dxfId="4" priority="12" type="expression">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>D$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>E$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17 C17 D17 E17 B19 C19 D19 E19" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 C17 D17 E17 B19 C19 D19 E19">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -8621,8 +8621,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="6" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8648,7 +8648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:6">
+    <row r="2" ht="15.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="F2" s="60"/>
     </row>
-    <row ht="29" r="3" spans="1:7">
+    <row r="3" ht="29" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -8741,7 +8741,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row customFormat="1" r="8" s="32" spans="1:7">
+    <row r="8" s="32" customFormat="1" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>251</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="32" spans="1:7">
+    <row r="9" s="32" customFormat="1" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -9081,7 +9081,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row customFormat="1" r="29" s="32" spans="1:7">
+    <row r="29" s="32" customFormat="1" spans="1:7">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -9090,7 +9090,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row customFormat="1" r="30" s="32" spans="1:7">
+    <row r="30" s="32" customFormat="1" spans="1:7">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -9099,7 +9099,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row customFormat="1" r="31" s="32" spans="1:7">
+    <row r="31" s="32" customFormat="1" spans="1:7">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -9108,7 +9108,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row customFormat="1" r="32" s="32" spans="1:7">
+    <row r="32" s="32" customFormat="1" spans="1:7">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -9117,7 +9117,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row customFormat="1" r="33" s="32" spans="1:7">
+    <row r="33" s="32" customFormat="1" spans="1:7">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -9126,7 +9126,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row customFormat="1" r="34" s="32" spans="1:7">
+    <row r="34" s="32" customFormat="1" spans="1:7">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -9135,7 +9135,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row customFormat="1" r="35" s="32" spans="1:7">
+    <row r="35" s="32" customFormat="1" spans="1:7">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -9144,7 +9144,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row customFormat="1" r="36" s="32" spans="1:7">
+    <row r="36" s="32" customFormat="1" spans="1:7">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -9153,7 +9153,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row customFormat="1" r="37" s="32" spans="1:7">
+    <row r="37" s="32" customFormat="1" spans="1:7">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -9162,7 +9162,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row customFormat="1" r="38" s="32" spans="1:7">
+    <row r="38" s="32" customFormat="1" spans="1:7">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -9171,7 +9171,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row customFormat="1" r="39" s="32" spans="1:7">
+    <row r="39" s="32" customFormat="1" spans="1:7">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -9180,7 +9180,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row customFormat="1" r="40" s="32" spans="1:7">
+    <row r="40" s="32" customFormat="1" spans="1:7">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -9189,7 +9189,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row customFormat="1" r="41" s="32" spans="1:7">
+    <row r="41" s="32" customFormat="1" spans="1:7">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -9198,7 +9198,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row customFormat="1" r="42" s="32" spans="1:7">
+    <row r="42" s="32" customFormat="1" spans="1:7">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -9207,7 +9207,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row customFormat="1" r="43" s="32" spans="1:7">
+    <row r="43" s="32" customFormat="1" spans="1:7">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -9216,7 +9216,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row customFormat="1" r="44" s="32" spans="1:7">
+    <row r="44" s="32" customFormat="1" spans="1:7">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -9225,7 +9225,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row customFormat="1" r="45" s="32" spans="1:7">
+    <row r="45" s="32" customFormat="1" spans="1:7">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -9234,7 +9234,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row customFormat="1" r="46" s="32" spans="1:7">
+    <row r="46" s="32" customFormat="1" spans="1:7">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -9245,134 +9245,134 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="22" type="expression">
+    <cfRule type="expression" dxfId="0" priority="22">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="23" type="expression">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="24" type="expression">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="25" type="expression">
+    <cfRule type="expression" dxfId="3" priority="25">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule dxfId="0" priority="16" type="expression">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="17" type="expression">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="18" type="expression">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="19" type="expression">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule dxfId="4" priority="26" type="expression">
+    <cfRule type="expression" dxfId="4" priority="26">
       <formula>A$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>B$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule dxfId="4" priority="8" type="expression">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>C$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule dxfId="4" priority="6" type="expression">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>D$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule dxfId="4" priority="2" type="expression">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule dxfId="4" priority="4" type="expression">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>F$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>G$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule dxfId="4" priority="21" type="expression">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule dxfId="4" priority="9" type="expression">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule dxfId="4" priority="7" type="expression">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>C$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>E$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule dxfId="4" priority="3" type="expression">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>F$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24 G24">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19 C19 D19 E19 F19 G19" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 C19 D19 E19 F19 G19">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B21 C21 D21 E21 F21 G21 B23 C23 D23 E23 F23 G23 B25 C25 D25 E25 F25 G25" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 C21 D21 E21 F21 G21 B23 C23 D23 E23 F23 G23 B25 C25 D25 E25 F25 G25">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -9380,8 +9380,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="6" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9407,7 +9407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:5">
+    <row r="2" ht="15.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>117</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:7">
+    <row r="3" ht="29" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -9837,7 +9837,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
     </row>
-    <row customFormat="1" r="26" s="32" spans="1:6">
+    <row r="26" s="32" customFormat="1" spans="1:6">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -9845,124 +9845,124 @@
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
     </row>
-    <row customFormat="1" r="27" s="32"/>
-    <row customFormat="1" r="28" s="32"/>
+    <row r="27" s="32" customFormat="1"/>
+    <row r="28" s="32" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="25" type="expression">
+    <cfRule type="expression" dxfId="3" priority="25">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="24" type="expression">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="23" type="expression">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="22" type="expression">
+    <cfRule type="expression" dxfId="0" priority="22">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1">
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule dxfId="4" priority="26" type="expression">
+    <cfRule type="expression" dxfId="4" priority="26">
       <formula>A$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>B$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule dxfId="4" priority="8" type="expression">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>C$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule dxfId="4" priority="6" type="expression">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>D$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule dxfId="4" priority="2" type="expression">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule dxfId="4" priority="4" type="expression">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>F$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>G$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule dxfId="4" priority="21" type="expression">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule dxfId="4" priority="9" type="expression">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule dxfId="4" priority="7" type="expression">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>C$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>E$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule dxfId="4" priority="3" type="expression">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>F$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24 G24">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19 C19 D19 E19 F19 G19" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 C19 D19 E19 F19 G19">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B21 C21 D21 E21 F21 G21 B23 C23 D23 E23 F23 G23 B25 C25 D25 E25 F25 G25" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 C21 D21 E21 F21 G21 B23 C23 D23 E23 F23 G23 B25 C25 D25 E25 F25 G25">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -9970,8 +9970,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="6" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9997,7 +9997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:5">
+    <row r="2" ht="15.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>246</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:7">
+    <row r="3" ht="29" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -10089,7 +10089,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row customFormat="1" r="8" spans="1:7">
+    <row r="8" customFormat="1" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>265</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:7">
+    <row r="9" customFormat="1" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -10416,7 +10416,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
     </row>
-    <row customFormat="1" r="25" s="32" spans="1:6">
+    <row r="25" s="32" customFormat="1" spans="1:6">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -10424,124 +10424,124 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
     </row>
-    <row customFormat="1" r="26" s="32"/>
-    <row customFormat="1" r="27" s="32"/>
+    <row r="26" s="32" customFormat="1"/>
+    <row r="27" s="32" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="21" type="expression">
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="20" type="expression">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="19" type="expression">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="18" type="expression">
+    <cfRule type="expression" dxfId="0" priority="18">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1">
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule dxfId="4" priority="22" type="expression">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>B$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule dxfId="4" priority="8" type="expression">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>C$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule dxfId="4" priority="6" type="expression">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>D$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule dxfId="4" priority="2" type="expression">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule dxfId="4" priority="4" type="expression">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>F$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule dxfId="4" priority="16" type="expression">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>G$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule dxfId="4" priority="17" type="expression">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule dxfId="4" priority="9" type="expression">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>B$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule dxfId="4" priority="7" type="expression">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>C$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>E$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule dxfId="4" priority="3" type="expression">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>F$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 G23">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>A$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18 C18 D18 E18 F18 G18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 C18 D18 E18 F18 G18">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20 C20 D20 E20 F20 G20 B22 C22 D22 E22 F22 G22 B24 C24 D24 E24 F24 G24" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 C20 D20 E20 F20 G20 B22 C22 D22 E22 F22 G22 B24 C24 D24 E24 F24 G24">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A$1:F$1048576"/>
@@ -10549,8 +10549,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10573,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:6">
+    <row r="2" ht="15.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>271</v>
       </c>
     </row>
-    <row ht="43.5" r="3" spans="1:6">
+    <row r="3" ht="43.5" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -10822,51 +10822,51 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="24" type="expression">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="23" type="expression">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="22" type="expression">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="21" type="expression">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule dxfId="3" priority="16" type="expression">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="15" type="expression">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="14" type="expression">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="13" type="expression">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18 C18 D18 E18 F18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 C18 D18 E18 F18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" r:id="rId1" ref="D15"/>
-    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=FhKajyZsLoLJBu7ZRvW0bA%3D%3D" r:id="rId2" ref="F15"/>
+    <hyperlink ref="D15" r:id="rId1" display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
+    <hyperlink ref="F15" r:id="rId2" display="http://gdkwebsvr:8080/i/reg?code=FhKajyZsLoLJBu7ZRvW0bA%3D%3D"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -10874,8 +10874,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10898,7 +10898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:5">
+    <row r="2" ht="15.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>286</v>
       </c>
     </row>
-    <row ht="43.5" r="3" spans="1:6">
+    <row r="3" ht="43.5" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -11136,67 +11136,67 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="28" type="expression">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="27" type="expression">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="26" type="expression">
+    <cfRule type="expression" dxfId="1" priority="26">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="25" type="expression">
+    <cfRule type="expression" dxfId="0" priority="25">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule dxfId="3" priority="20" type="expression">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="19" type="expression">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="18" type="expression">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="17" type="expression">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A15:$XFD15">
-    <cfRule dxfId="5" priority="4" type="expression">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>A$14="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule dxfId="5" priority="2" type="expression">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>E$18="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule dxfId="5" priority="1" type="expression">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>F$18="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule dxfId="5" priority="3" type="expression">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>G$18="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14 C14 D14 E14 F14 G14 H14 B16 C16 D16 E16 F16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 C14 D14 E14 F14 G14 H14 B16 C16 D16 E16 F16">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -11204,8 +11204,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="7" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11231,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:7">
+    <row r="2" ht="15.25" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>292</v>
       </c>
     </row>
-    <row ht="43.5" r="3" spans="1:7">
+    <row r="3" ht="43.5" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -11506,72 +11506,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="28" type="expression">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="27" type="expression">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="26" type="expression">
+    <cfRule type="expression" dxfId="1" priority="26">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="25" type="expression">
+    <cfRule type="expression" dxfId="0" priority="25">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule dxfId="0" priority="17" type="expression">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="18" type="expression">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="19" type="expression">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="20" type="expression">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:G1">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17 C17 D17 E17 F17 G17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 C17 D17 E17 F17 G17">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection activeCell="M6" pane="topRight" sqref="M6"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.3636363636364" collapsed="true"/>
-    <col min="2" max="13" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="27.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -11638,7 +11638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="43.5" r="3" spans="1:13">
+    <row r="3" ht="43.5" spans="1:13">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>310</v>
       </c>
     </row>
-    <row customFormat="1" r="12" spans="1:13">
+    <row r="12" customFormat="1" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -11978,7 +11978,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row customFormat="1" r="13" spans="1:13">
+    <row r="13" customFormat="1" spans="1:13">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -12373,110 +12373,110 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:M1">
-    <cfRule dxfId="0" priority="66" type="expression">
+    <cfRule type="expression" dxfId="0" priority="66">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="67" type="expression">
+    <cfRule type="expression" dxfId="1" priority="67">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="68" type="expression">
+    <cfRule type="expression" dxfId="2" priority="68">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="69" type="expression">
+    <cfRule type="expression" dxfId="3" priority="69">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule dxfId="4" priority="70" type="expression">
+    <cfRule type="expression" dxfId="4" priority="70">
       <formula>A$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="4" priority="65" type="expression">
+    <cfRule type="expression" dxfId="4" priority="65">
       <formula>B$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule dxfId="4" priority="64" type="expression">
+    <cfRule type="expression" dxfId="4" priority="64">
       <formula>C$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule dxfId="4" priority="54" type="expression">
+    <cfRule type="expression" dxfId="4" priority="54">
       <formula>D$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule dxfId="4" priority="36" type="expression">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>E$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule dxfId="4" priority="21" type="expression">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>F$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule dxfId="4" priority="16" type="expression">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>G$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule dxfId="4" priority="26" type="expression">
+    <cfRule type="expression" dxfId="4" priority="26">
       <formula>H$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule dxfId="4" priority="63" type="expression">
+    <cfRule type="expression" dxfId="4" priority="63">
       <formula>I$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule dxfId="4" priority="11" type="expression">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>J$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule dxfId="4" priority="6" type="expression">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>K$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>L$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule dxfId="4" priority="45" type="expression">
+    <cfRule type="expression" dxfId="4" priority="45">
       <formula>M$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15:D15 E15 F15 G15 H15 I15 J15 K15 L15 M15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:D15 E15 F15 G15 H15 I15 J15 K15 L15 M15">
       <formula1>"WOMF,VIDA,PRIVY,DIGI,TKNAJ"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:D16 E16 F16 G16 H16 I16 J16 K16 L16 M16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:D16 E16 F16 G16 H16 I16 J16 K16 L16 M16">
       <formula1>"CP,NS,WRONG"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:D18 E18 F18 G18 H18 I18 J18 K18 L18 M18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:D18 E18 F18 G18 H18 I18 J18 K18 L18 M18">
       <formula1>"list,inbox,WRONG"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:D19 E19 F19 G19 H19 I19 J19 K19 L19 M19" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:D19 E19 F19 G19 H19 I19 J19 K19 L19 M19">
       <formula1>"Select only the options below,'false,'true,WRONG"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B21:D21 E21 F21 G21 H21 I21 J21 K21 L21 M21 B23:D23 E23 F23 G23 H23 I23 J23 K23 L23 M23" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:D21 E21 F21 G21 H21 I21 J21 K21 L21 M21 B23:D23 E23 F23 G23 H23 I23 J23 K23 L23 M23">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -12484,8 +12484,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12707,92 +12707,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule dxfId="3" priority="15" type="expression">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="14" type="expression">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="13" type="expression">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="12" type="expression">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="8" type="expression">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="7" type="expression">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="6" type="expression">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule dxfId="4" priority="16" type="expression">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>A$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule dxfId="4" priority="11" type="expression">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>B$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>C$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule dxfId="4" priority="9" type="expression">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>D$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:D16 B18:D18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:D16 B18:D18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection activeCell="C14" pane="topRight" sqref="C14"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5454545454545" collapsed="true"/>
-    <col min="2" max="7" customWidth="true" width="29.9090909090909" collapsed="true"/>
+    <col min="1" max="1" width="23.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="29.9090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -12818,7 +12818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:4">
+    <row r="2" ht="15.25" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -12919,7 +12919,7 @@
     <row r="7" spans="1:1">
       <c r="A7" s="6"/>
     </row>
-    <row customFormat="1" r="8" s="63" spans="1:2">
+    <row r="8" s="63" customFormat="1" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -13595,83 +13595,83 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="31" type="expression">
+    <cfRule type="expression" dxfId="0" priority="31">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="32" type="expression">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="33" type="expression">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="34" type="expression">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1">
-    <cfRule dxfId="3" priority="24" type="expression">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="23" type="expression">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="22" type="expression">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="21" type="expression">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule dxfId="4" priority="35" type="expression">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>A$39="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>B$39="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>C$39="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>D$39="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>E$39="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>F$39="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>G$39="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B39 C39 D39 E39 F39 G39 B41 C41 D41 E41 F41 G41" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 C39 D39 E39 F39 G39 B41 C41 D41 E41 F41 G41">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -13679,8 +13679,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="29" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="29" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -13861,7 +13861,7 @@
         <v>268</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:29">
+    <row r="3" ht="29" spans="1:29">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -14849,711 +14849,711 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AC1">
-    <cfRule dxfId="3" priority="212" type="expression">
+    <cfRule type="expression" dxfId="3" priority="212">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="211" type="expression">
+    <cfRule type="expression" dxfId="2" priority="211">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="210" type="expression">
+    <cfRule type="expression" dxfId="1" priority="210">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="209" type="expression">
+    <cfRule type="expression" dxfId="0" priority="209">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="208" type="expression">
+    <cfRule type="expression" dxfId="3" priority="208">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="207" type="expression">
+    <cfRule type="expression" dxfId="2" priority="207">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="206" type="expression">
+    <cfRule type="expression" dxfId="1" priority="206">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="205" type="expression">
+    <cfRule type="expression" dxfId="0" priority="205">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="204" type="expression">
+    <cfRule type="expression" dxfId="3" priority="204">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="203" type="expression">
+    <cfRule type="expression" dxfId="2" priority="203">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="202" type="expression">
+    <cfRule type="expression" dxfId="1" priority="202">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="201" type="expression">
+    <cfRule type="expression" dxfId="0" priority="201">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="192" type="expression">
+    <cfRule type="expression" dxfId="3" priority="192">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="191" type="expression">
+    <cfRule type="expression" dxfId="2" priority="191">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="190" type="expression">
+    <cfRule type="expression" dxfId="1" priority="190">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="189" type="expression">
+    <cfRule type="expression" dxfId="0" priority="189">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="188" type="expression">
+    <cfRule type="expression" dxfId="3" priority="188">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="187" type="expression">
+    <cfRule type="expression" dxfId="2" priority="187">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="186" type="expression">
+    <cfRule type="expression" dxfId="1" priority="186">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="185" type="expression">
+    <cfRule type="expression" dxfId="0" priority="185">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="3" priority="200" type="expression">
+    <cfRule type="expression" dxfId="3" priority="200">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="199" type="expression">
+    <cfRule type="expression" dxfId="2" priority="199">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="198" type="expression">
+    <cfRule type="expression" dxfId="1" priority="198">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="197" type="expression">
+    <cfRule type="expression" dxfId="0" priority="197">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="196" type="expression">
+    <cfRule type="expression" dxfId="3" priority="196">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="195" type="expression">
+    <cfRule type="expression" dxfId="2" priority="195">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="194" type="expression">
+    <cfRule type="expression" dxfId="1" priority="194">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="193" type="expression">
+    <cfRule type="expression" dxfId="0" priority="193">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule dxfId="3" priority="184" type="expression">
+    <cfRule type="expression" dxfId="3" priority="184">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="183" type="expression">
+    <cfRule type="expression" dxfId="2" priority="183">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="182" type="expression">
+    <cfRule type="expression" dxfId="1" priority="182">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="181" type="expression">
+    <cfRule type="expression" dxfId="0" priority="181">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="180" type="expression">
+    <cfRule type="expression" dxfId="3" priority="180">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="179" type="expression">
+    <cfRule type="expression" dxfId="2" priority="179">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="178" type="expression">
+    <cfRule type="expression" dxfId="1" priority="178">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="177" type="expression">
+    <cfRule type="expression" dxfId="0" priority="177">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule dxfId="3" priority="176" type="expression">
+    <cfRule type="expression" dxfId="3" priority="176">
       <formula>H1&lt;&gt;H4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="175" type="expression">
+    <cfRule type="expression" dxfId="2" priority="175">
       <formula>H1=H4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="174" type="expression">
+    <cfRule type="expression" dxfId="1" priority="174">
       <formula>H1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="173" type="expression">
+    <cfRule type="expression" dxfId="0" priority="173">
       <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="172" type="expression">
+    <cfRule type="expression" dxfId="3" priority="172">
       <formula>H1&lt;&gt;H4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="171" type="expression">
+    <cfRule type="expression" dxfId="2" priority="171">
       <formula>H1=H4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="170" type="expression">
+    <cfRule type="expression" dxfId="1" priority="170">
       <formula>H1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="169" type="expression">
+    <cfRule type="expression" dxfId="0" priority="169">
       <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule dxfId="3" priority="168" type="expression">
+    <cfRule type="expression" dxfId="3" priority="168">
       <formula>I1&lt;&gt;I4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="167" type="expression">
+    <cfRule type="expression" dxfId="2" priority="167">
       <formula>I1=I4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="166" type="expression">
+    <cfRule type="expression" dxfId="1" priority="166">
       <formula>I1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="165" type="expression">
+    <cfRule type="expression" dxfId="0" priority="165">
       <formula>OR(I1="",I1="Unexecuted",I1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="164" type="expression">
+    <cfRule type="expression" dxfId="3" priority="164">
       <formula>I1&lt;&gt;I4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="163" type="expression">
+    <cfRule type="expression" dxfId="2" priority="163">
       <formula>I1=I4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="162" type="expression">
+    <cfRule type="expression" dxfId="1" priority="162">
       <formula>I1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="161" type="expression">
+    <cfRule type="expression" dxfId="0" priority="161">
       <formula>OR(I1="",I1="Unexecuted",I1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule dxfId="3" priority="160" type="expression">
+    <cfRule type="expression" dxfId="3" priority="160">
       <formula>J1&lt;&gt;J4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="159" type="expression">
+    <cfRule type="expression" dxfId="2" priority="159">
       <formula>J1=J4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="158" type="expression">
+    <cfRule type="expression" dxfId="1" priority="158">
       <formula>J1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="157" type="expression">
+    <cfRule type="expression" dxfId="0" priority="157">
       <formula>OR(J1="",J1="Unexecuted",J1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="156" type="expression">
+    <cfRule type="expression" dxfId="3" priority="156">
       <formula>J1&lt;&gt;J4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="155" type="expression">
+    <cfRule type="expression" dxfId="2" priority="155">
       <formula>J1=J4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="154" type="expression">
+    <cfRule type="expression" dxfId="1" priority="154">
       <formula>J1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="153" type="expression">
+    <cfRule type="expression" dxfId="0" priority="153">
       <formula>OR(J1="",J1="Unexecuted",J1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule dxfId="3" priority="152" type="expression">
+    <cfRule type="expression" dxfId="3" priority="152">
       <formula>K1&lt;&gt;K4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="151" type="expression">
+    <cfRule type="expression" dxfId="2" priority="151">
       <formula>K1=K4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="150" type="expression">
+    <cfRule type="expression" dxfId="1" priority="150">
       <formula>K1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="149" type="expression">
+    <cfRule type="expression" dxfId="0" priority="149">
       <formula>OR(K1="",K1="Unexecuted",K1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="148" type="expression">
+    <cfRule type="expression" dxfId="3" priority="148">
       <formula>K1&lt;&gt;K4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="147" type="expression">
+    <cfRule type="expression" dxfId="2" priority="147">
       <formula>K1=K4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="146" type="expression">
+    <cfRule type="expression" dxfId="1" priority="146">
       <formula>K1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="145" type="expression">
+    <cfRule type="expression" dxfId="0" priority="145">
       <formula>OR(K1="",K1="Unexecuted",K1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule dxfId="3" priority="144" type="expression">
+    <cfRule type="expression" dxfId="3" priority="144">
       <formula>L1&lt;&gt;L4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="143" type="expression">
+    <cfRule type="expression" dxfId="2" priority="143">
       <formula>L1=L4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="142" type="expression">
+    <cfRule type="expression" dxfId="1" priority="142">
       <formula>L1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="141" type="expression">
+    <cfRule type="expression" dxfId="0" priority="141">
       <formula>OR(L1="",L1="Unexecuted",L1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="140" type="expression">
+    <cfRule type="expression" dxfId="3" priority="140">
       <formula>L1&lt;&gt;L4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="139" type="expression">
+    <cfRule type="expression" dxfId="2" priority="139">
       <formula>L1=L4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="138" type="expression">
+    <cfRule type="expression" dxfId="1" priority="138">
       <formula>L1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="137" type="expression">
+    <cfRule type="expression" dxfId="0" priority="137">
       <formula>OR(L1="",L1="Unexecuted",L1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule dxfId="3" priority="136" type="expression">
+    <cfRule type="expression" dxfId="3" priority="136">
       <formula>M1&lt;&gt;M4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="135" type="expression">
+    <cfRule type="expression" dxfId="2" priority="135">
       <formula>M1=M4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="134" type="expression">
+    <cfRule type="expression" dxfId="1" priority="134">
       <formula>M1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="133" type="expression">
+    <cfRule type="expression" dxfId="0" priority="133">
       <formula>OR(M1="",M1="Unexecuted",M1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="132" type="expression">
+    <cfRule type="expression" dxfId="3" priority="132">
       <formula>M1&lt;&gt;M4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="131" type="expression">
+    <cfRule type="expression" dxfId="2" priority="131">
       <formula>M1=M4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="130" type="expression">
+    <cfRule type="expression" dxfId="1" priority="130">
       <formula>M1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="129" type="expression">
+    <cfRule type="expression" dxfId="0" priority="129">
       <formula>OR(M1="",M1="Unexecuted",M1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule dxfId="3" priority="128" type="expression">
+    <cfRule type="expression" dxfId="3" priority="128">
       <formula>N1&lt;&gt;N4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="127" type="expression">
+    <cfRule type="expression" dxfId="2" priority="127">
       <formula>N1=N4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="126" type="expression">
+    <cfRule type="expression" dxfId="1" priority="126">
       <formula>N1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="125" type="expression">
+    <cfRule type="expression" dxfId="0" priority="125">
       <formula>OR(N1="",N1="Unexecuted",N1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="124" type="expression">
+    <cfRule type="expression" dxfId="3" priority="124">
       <formula>N1&lt;&gt;N4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="123" type="expression">
+    <cfRule type="expression" dxfId="2" priority="123">
       <formula>N1=N4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="122" type="expression">
+    <cfRule type="expression" dxfId="1" priority="122">
       <formula>N1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="121" type="expression">
+    <cfRule type="expression" dxfId="0" priority="121">
       <formula>OR(N1="",N1="Unexecuted",N1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule dxfId="3" priority="120" type="expression">
+    <cfRule type="expression" dxfId="3" priority="120">
       <formula>O1&lt;&gt;O4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="119" type="expression">
+    <cfRule type="expression" dxfId="2" priority="119">
       <formula>O1=O4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="118" type="expression">
+    <cfRule type="expression" dxfId="1" priority="118">
       <formula>O1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="117" type="expression">
+    <cfRule type="expression" dxfId="0" priority="117">
       <formula>OR(O1="",O1="Unexecuted",O1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="116" type="expression">
+    <cfRule type="expression" dxfId="3" priority="116">
       <formula>O1&lt;&gt;O4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="115" type="expression">
+    <cfRule type="expression" dxfId="2" priority="115">
       <formula>O1=O4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="114" type="expression">
+    <cfRule type="expression" dxfId="1" priority="114">
       <formula>O1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="113" type="expression">
+    <cfRule type="expression" dxfId="0" priority="113">
       <formula>OR(O1="",O1="Unexecuted",O1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule dxfId="3" priority="112" type="expression">
+    <cfRule type="expression" dxfId="3" priority="112">
       <formula>P1&lt;&gt;P4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="111" type="expression">
+    <cfRule type="expression" dxfId="2" priority="111">
       <formula>P1=P4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="110" type="expression">
+    <cfRule type="expression" dxfId="1" priority="110">
       <formula>P1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="109" type="expression">
+    <cfRule type="expression" dxfId="0" priority="109">
       <formula>OR(P1="",P1="Unexecuted",P1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="108" type="expression">
+    <cfRule type="expression" dxfId="3" priority="108">
       <formula>P1&lt;&gt;P4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="107" type="expression">
+    <cfRule type="expression" dxfId="2" priority="107">
       <formula>P1=P4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="106" type="expression">
+    <cfRule type="expression" dxfId="1" priority="106">
       <formula>P1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="105" type="expression">
+    <cfRule type="expression" dxfId="0" priority="105">
       <formula>OR(P1="",P1="Unexecuted",P1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule dxfId="3" priority="104" type="expression">
+    <cfRule type="expression" dxfId="3" priority="104">
       <formula>Q1&lt;&gt;Q4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="103" type="expression">
+    <cfRule type="expression" dxfId="2" priority="103">
       <formula>Q1=Q4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="102" type="expression">
+    <cfRule type="expression" dxfId="1" priority="102">
       <formula>Q1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="101" type="expression">
+    <cfRule type="expression" dxfId="0" priority="101">
       <formula>OR(Q1="",Q1="Unexecuted",Q1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="100" type="expression">
+    <cfRule type="expression" dxfId="3" priority="100">
       <formula>Q1&lt;&gt;Q4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="99" type="expression">
+    <cfRule type="expression" dxfId="2" priority="99">
       <formula>Q1=Q4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="98" type="expression">
+    <cfRule type="expression" dxfId="1" priority="98">
       <formula>Q1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="97" type="expression">
+    <cfRule type="expression" dxfId="0" priority="97">
       <formula>OR(Q1="",Q1="Unexecuted",Q1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule dxfId="3" priority="96" type="expression">
+    <cfRule type="expression" dxfId="3" priority="96">
       <formula>R1&lt;&gt;R4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="95" type="expression">
+    <cfRule type="expression" dxfId="2" priority="95">
       <formula>R1=R4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="94" type="expression">
+    <cfRule type="expression" dxfId="1" priority="94">
       <formula>R1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="93" type="expression">
+    <cfRule type="expression" dxfId="0" priority="93">
       <formula>OR(R1="",R1="Unexecuted",R1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="92" type="expression">
+    <cfRule type="expression" dxfId="3" priority="92">
       <formula>R1&lt;&gt;R4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="91" type="expression">
+    <cfRule type="expression" dxfId="2" priority="91">
       <formula>R1=R4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="90" type="expression">
+    <cfRule type="expression" dxfId="1" priority="90">
       <formula>R1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="89" type="expression">
+    <cfRule type="expression" dxfId="0" priority="89">
       <formula>OR(R1="",R1="Unexecuted",R1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule dxfId="3" priority="88" type="expression">
+    <cfRule type="expression" dxfId="3" priority="88">
       <formula>S1&lt;&gt;S4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="87" type="expression">
+    <cfRule type="expression" dxfId="2" priority="87">
       <formula>S1=S4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="86" type="expression">
+    <cfRule type="expression" dxfId="1" priority="86">
       <formula>S1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="85" type="expression">
+    <cfRule type="expression" dxfId="0" priority="85">
       <formula>OR(S1="",S1="Unexecuted",S1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="84" type="expression">
+    <cfRule type="expression" dxfId="3" priority="84">
       <formula>S1&lt;&gt;S4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="83" type="expression">
+    <cfRule type="expression" dxfId="2" priority="83">
       <formula>S1=S4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="82" type="expression">
+    <cfRule type="expression" dxfId="1" priority="82">
       <formula>S1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="81" type="expression">
+    <cfRule type="expression" dxfId="0" priority="81">
       <formula>OR(S1="",S1="Unexecuted",S1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule dxfId="3" priority="80" type="expression">
+    <cfRule type="expression" dxfId="3" priority="80">
       <formula>T1&lt;&gt;T4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="79" type="expression">
+    <cfRule type="expression" dxfId="2" priority="79">
       <formula>T1=T4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="78" type="expression">
+    <cfRule type="expression" dxfId="1" priority="78">
       <formula>T1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="77" type="expression">
+    <cfRule type="expression" dxfId="0" priority="77">
       <formula>OR(T1="",T1="Unexecuted",T1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="76" type="expression">
+    <cfRule type="expression" dxfId="3" priority="76">
       <formula>T1&lt;&gt;T4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="75" type="expression">
+    <cfRule type="expression" dxfId="2" priority="75">
       <formula>T1=T4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="74" type="expression">
+    <cfRule type="expression" dxfId="1" priority="74">
       <formula>T1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="73" type="expression">
+    <cfRule type="expression" dxfId="0" priority="73">
       <formula>OR(T1="",T1="Unexecuted",T1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule dxfId="3" priority="72" type="expression">
+    <cfRule type="expression" dxfId="3" priority="72">
       <formula>U1&lt;&gt;U4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="71" type="expression">
+    <cfRule type="expression" dxfId="2" priority="71">
       <formula>U1=U4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="70" type="expression">
+    <cfRule type="expression" dxfId="1" priority="70">
       <formula>U1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="69" type="expression">
+    <cfRule type="expression" dxfId="0" priority="69">
       <formula>OR(U1="",U1="Unexecuted",U1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="68" type="expression">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>U1&lt;&gt;U4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="67" type="expression">
+    <cfRule type="expression" dxfId="2" priority="67">
       <formula>U1=U4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="66" type="expression">
+    <cfRule type="expression" dxfId="1" priority="66">
       <formula>U1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="65" type="expression">
+    <cfRule type="expression" dxfId="0" priority="65">
       <formula>OR(U1="",U1="Unexecuted",U1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule dxfId="3" priority="64" type="expression">
+    <cfRule type="expression" dxfId="3" priority="64">
       <formula>V1&lt;&gt;V4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="63" type="expression">
+    <cfRule type="expression" dxfId="2" priority="63">
       <formula>V1=V4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="62" type="expression">
+    <cfRule type="expression" dxfId="1" priority="62">
       <formula>V1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="61" type="expression">
+    <cfRule type="expression" dxfId="0" priority="61">
       <formula>OR(V1="",V1="Unexecuted",V1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="60" type="expression">
+    <cfRule type="expression" dxfId="3" priority="60">
       <formula>V1&lt;&gt;V4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="59" type="expression">
+    <cfRule type="expression" dxfId="2" priority="59">
       <formula>V1=V4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="58" type="expression">
+    <cfRule type="expression" dxfId="1" priority="58">
       <formula>V1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="57" type="expression">
+    <cfRule type="expression" dxfId="0" priority="57">
       <formula>OR(V1="",V1="Unexecuted",V1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule dxfId="3" priority="56" type="expression">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>W1&lt;&gt;W4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="55" type="expression">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>W1=W4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="54" type="expression">
+    <cfRule type="expression" dxfId="1" priority="54">
       <formula>W1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="53" type="expression">
+    <cfRule type="expression" dxfId="0" priority="53">
       <formula>OR(W1="",W1="Unexecuted",W1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="52" type="expression">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>W1&lt;&gt;W4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="51" type="expression">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>W1=W4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="50" type="expression">
+    <cfRule type="expression" dxfId="1" priority="50">
       <formula>W1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="49" type="expression">
+    <cfRule type="expression" dxfId="0" priority="49">
       <formula>OR(W1="",W1="Unexecuted",W1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1">
-    <cfRule dxfId="3" priority="48" type="expression">
+    <cfRule type="expression" dxfId="3" priority="48">
       <formula>X1&lt;&gt;X4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="47" type="expression">
+    <cfRule type="expression" dxfId="2" priority="47">
       <formula>X1=X4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="46" type="expression">
+    <cfRule type="expression" dxfId="1" priority="46">
       <formula>X1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="45" type="expression">
+    <cfRule type="expression" dxfId="0" priority="45">
       <formula>OR(X1="",X1="Unexecuted",X1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="44" type="expression">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>X1&lt;&gt;X4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="43" type="expression">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>X1=X4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="42" type="expression">
+    <cfRule type="expression" dxfId="1" priority="42">
       <formula>X1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="41" type="expression">
+    <cfRule type="expression" dxfId="0" priority="41">
       <formula>OR(X1="",X1="Unexecuted",X1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule dxfId="3" priority="40" type="expression">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>Y1&lt;&gt;Y4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="39" type="expression">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>Y1=Y4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="38" type="expression">
+    <cfRule type="expression" dxfId="1" priority="38">
       <formula>Y1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="37" type="expression">
+    <cfRule type="expression" dxfId="0" priority="37">
       <formula>OR(Y1="",Y1="Unexecuted",Y1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="36" type="expression">
+    <cfRule type="expression" dxfId="3" priority="36">
       <formula>Y1&lt;&gt;Y4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="35" type="expression">
+    <cfRule type="expression" dxfId="2" priority="35">
       <formula>Y1=Y4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="34" type="expression">
+    <cfRule type="expression" dxfId="1" priority="34">
       <formula>Y1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="33" type="expression">
+    <cfRule type="expression" dxfId="0" priority="33">
       <formula>OR(Y1="",Y1="Unexecuted",Y1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1">
-    <cfRule dxfId="3" priority="32" type="expression">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>Z1&lt;&gt;Z4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="31" type="expression">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>Z1=Z4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="30" type="expression">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>Z1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="29" type="expression">
+    <cfRule type="expression" dxfId="0" priority="29">
       <formula>OR(Z1="",Z1="Unexecuted",Z1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="28" type="expression">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>Z1&lt;&gt;Z4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="27" type="expression">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>Z1=Z4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="26" type="expression">
+    <cfRule type="expression" dxfId="1" priority="26">
       <formula>Z1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="25" type="expression">
+    <cfRule type="expression" dxfId="0" priority="25">
       <formula>OR(Z1="",Z1="Unexecuted",Z1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1">
-    <cfRule dxfId="3" priority="24" type="expression">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>AA1&lt;&gt;AA4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="23" type="expression">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>AA1=AA4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="22" type="expression">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>AA1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="21" type="expression">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>OR(AA1="",AA1="Unexecuted",AA1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="20" type="expression">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>AA1&lt;&gt;AA4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="19" type="expression">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>AA1=AA4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="18" type="expression">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>AA1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="17" type="expression">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>OR(AA1="",AA1="Unexecuted",AA1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1">
-    <cfRule dxfId="3" priority="16" type="expression">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>AB1&lt;&gt;AB4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="15" type="expression">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>AB1=AB4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="14" type="expression">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AB1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="13" type="expression">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>OR(AB1="",AB1="Unexecuted",AB1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="12" type="expression">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>AB1&lt;&gt;AB4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="11" type="expression">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>AB1=AB4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="10" type="expression">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>AB1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="9" type="expression">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>OR(AB1="",AB1="Unexecuted",AB1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1">
-    <cfRule dxfId="3" priority="8" type="expression">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AC1&lt;&gt;AC4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="7" type="expression">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>AC1=AC4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="6" type="expression">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AC1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>OR(AC1="",AC1="Unexecuted",AC1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AC1&lt;&gt;AC4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AC1=AC4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AC1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(AC1="",AC1="Unexecuted",AC1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:AC16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:AC16">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -15561,8 +15561,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15872,131 +15872,131 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule dxfId="3" priority="29" type="expression">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="28" type="expression">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="27" type="expression">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="26" type="expression">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="22" type="expression">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="21" type="expression">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="20" type="expression">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="19" type="expression">
+    <cfRule type="expression" dxfId="0" priority="19">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="13" type="expression">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="12" type="expression">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="11" type="expression">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="10" type="expression">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="18" type="expression">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="17" type="expression">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="16" type="expression">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="15" type="expression">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="3" priority="9" type="expression">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>A$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>B$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule dxfId="4" priority="24" type="expression">
+    <cfRule type="expression" dxfId="4" priority="24">
       <formula>C$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule dxfId="4" priority="14" type="expression">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>D$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule dxfId="4" priority="23" type="expression">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>E$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>F$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:F16 B18:F18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:F16 B18:F18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -16004,8 +16004,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16315,131 +16315,131 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule dxfId="3" priority="29" type="expression">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="28" type="expression">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="27" type="expression">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="26" type="expression">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="22" type="expression">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="21" type="expression">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="20" type="expression">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="19" type="expression">
+    <cfRule type="expression" dxfId="0" priority="19">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="13" type="expression">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="12" type="expression">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="11" type="expression">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="10" type="expression">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="18" type="expression">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="17" type="expression">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="16" type="expression">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="15" type="expression">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="3" priority="9" type="expression">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>A$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>B$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule dxfId="4" priority="24" type="expression">
+    <cfRule type="expression" dxfId="4" priority="24">
       <formula>C$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule dxfId="4" priority="14" type="expression">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>D$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule dxfId="4" priority="23" type="expression">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>E$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>F$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:F16 B18:F18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:F16 B18:F18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -16447,8 +16447,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="7" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16497,7 +16497,7 @@
         <v>268</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:7">
+    <row r="3" ht="29" spans="1:7">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -16847,224 +16847,224 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule dxfId="3" priority="58" type="expression">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="57" type="expression">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="56" type="expression">
+    <cfRule type="expression" dxfId="1" priority="56">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="55" type="expression">
+    <cfRule type="expression" dxfId="0" priority="55">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule dxfId="3" priority="43" type="expression">
+    <cfRule type="expression" dxfId="3" priority="43">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="42" type="expression">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="41" type="expression">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="40" type="expression">
+    <cfRule type="expression" dxfId="0" priority="40">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="38" type="expression">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="37" type="expression">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="36" type="expression">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="35" type="expression">
+    <cfRule type="expression" dxfId="0" priority="35">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="51" type="expression">
+    <cfRule type="expression" dxfId="3" priority="51">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="50" type="expression">
+    <cfRule type="expression" dxfId="2" priority="50">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="49" type="expression">
+    <cfRule type="expression" dxfId="1" priority="49">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="48" type="expression">
+    <cfRule type="expression" dxfId="0" priority="48">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="25" type="expression">
+    <cfRule type="expression" dxfId="3" priority="25">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="24" type="expression">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="23" type="expression">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="22" type="expression">
+    <cfRule type="expression" dxfId="0" priority="22">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="20" type="expression">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="19" type="expression">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="18" type="expression">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="17" type="expression">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="34" type="expression">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="33" type="expression">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="32" type="expression">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="31" type="expression">
+    <cfRule type="expression" dxfId="0" priority="31">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="29" type="expression">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="28" type="expression">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="27" type="expression">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="26" type="expression">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="3" priority="47" type="expression">
+    <cfRule type="expression" dxfId="3" priority="47">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="46" type="expression">
+    <cfRule type="expression" dxfId="2" priority="46">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="45" type="expression">
+    <cfRule type="expression" dxfId="1" priority="45">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="44" type="expression">
+    <cfRule type="expression" dxfId="0" priority="44">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule dxfId="3" priority="16" type="expression">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="15" type="expression">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="14" type="expression">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="13" type="expression">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="12" type="expression">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="11" type="expression">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="10" type="expression">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="9" type="expression">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="8" type="expression">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="7" type="expression">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="6" type="expression">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule dxfId="4" priority="59" type="expression">
+    <cfRule type="expression" dxfId="4" priority="59">
       <formula>A$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule dxfId="4" priority="54" type="expression">
+    <cfRule type="expression" dxfId="4" priority="54">
       <formula>B$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule dxfId="4" priority="53" type="expression">
+    <cfRule type="expression" dxfId="4" priority="53">
       <formula>C$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule dxfId="4" priority="21" type="expression">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>D$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>E$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule dxfId="4" priority="52" type="expression">
+    <cfRule type="expression" dxfId="4" priority="52">
       <formula>F$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule dxfId="4" priority="39" type="expression">
+    <cfRule type="expression" dxfId="4" priority="39">
       <formula>G$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:G17 B19:G20" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:G17 B19:G20">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -17072,8 +17072,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17110,7 +17110,7 @@
         <v>268</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:5">
+    <row r="3" ht="29" spans="1:5">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -17306,112 +17306,112 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule dxfId="3" priority="24" type="expression">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="23" type="expression">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="22" type="expression">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="21" type="expression">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="16" type="expression">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="15" type="expression">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="14" type="expression">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="13" type="expression">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="12" type="expression">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="11" type="expression">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="10" type="expression">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="9" type="expression">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="20" type="expression">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="19" type="expression">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="18" type="expression">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="17" type="expression">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="8" type="expression">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="7" type="expression">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="6" type="expression">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:E16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:E16">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection activeCell="A9" pane="topRight" sqref="A9"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="55.2818181818182" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="62.7090909090909" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="40.1363636363636" collapsed="true"/>
+    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="62.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.1363636363636" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17496,7 +17496,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row customFormat="1" r="8" s="34" spans="1:4">
+    <row r="8" s="34" customFormat="1" spans="1:4">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -17639,7 +17639,7 @@
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
     </row>
-    <row ht="145" r="22" spans="1:3">
+    <row r="22" ht="145" spans="1:3">
       <c r="A22" s="42" t="s">
         <v>0</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>524</v>
       </c>
     </row>
-    <row ht="87" r="23" spans="1:3">
+    <row r="23" ht="87" spans="1:3">
       <c r="A23" s="40" t="s">
         <v>3</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>529</v>
       </c>
     </row>
-    <row ht="29" r="25" spans="1:3">
+    <row r="25" ht="29" spans="1:3">
       <c r="A25" s="40" t="s">
         <v>12</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>530</v>
       </c>
     </row>
-    <row ht="72.5" r="26" spans="1:3">
+    <row r="26" ht="72.5" spans="1:3">
       <c r="A26" s="40" t="s">
         <v>55</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>531</v>
       </c>
     </row>
-    <row ht="29" r="27" spans="1:3">
+    <row r="27" ht="29" spans="1:3">
       <c r="A27" s="11" t="s">
         <v>532</v>
       </c>
@@ -17711,7 +17711,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
-    <row ht="29" r="29" spans="1:3">
+    <row r="29" ht="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -17729,7 +17729,7 @@
       <c r="B30" s="10"/>
       <c r="C30" s="8"/>
     </row>
-    <row ht="43.5" r="31" spans="1:3">
+    <row r="31" ht="43.5" spans="1:3">
       <c r="A31" s="11" t="s">
         <v>509</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>535</v>
       </c>
     </row>
-    <row ht="29" r="32" spans="1:3">
+    <row r="32" ht="29" spans="1:3">
       <c r="A32" s="11" t="s">
         <v>66</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>537</v>
       </c>
     </row>
-    <row ht="29" r="33" spans="1:3">
+    <row r="33" ht="29" spans="1:3">
       <c r="A33" s="11" t="s">
         <v>25</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>538</v>
       </c>
     </row>
-    <row ht="29" r="34" spans="1:3">
+    <row r="34" ht="29" spans="1:3">
       <c r="A34" s="11" t="s">
         <v>517</v>
       </c>
@@ -17780,7 +17780,7 @@
       <c r="B35" s="10"/>
       <c r="C35" s="8"/>
     </row>
-    <row ht="29" r="36" spans="1:3">
+    <row r="36" ht="29" spans="1:3">
       <c r="A36" s="38" t="s">
         <v>45</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>540</v>
       </c>
     </row>
-    <row ht="29" r="37" spans="1:3">
+    <row r="37" ht="29" spans="1:3">
       <c r="A37" s="15" t="s">
         <v>519</v>
       </c>
@@ -17813,121 +17813,121 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="2" priority="25" type="expression">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="24" type="expression">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="23" type="expression">
+    <cfRule type="expression" dxfId="0" priority="23">
       <formula>OR(A1="",A1="Unexecuted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(B1="",B1="Unexecuted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="15" type="expression">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="14" type="expression">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="13" type="expression">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="12" type="expression">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>OR(C1="",C1="Unexecuted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="9" type="expression">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR(D1="",D1="Unexecuted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:XFD1">
-    <cfRule dxfId="3" priority="26" type="expression">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule dxfId="4" priority="11" type="expression">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>B$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>C$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="3" priority="19" type="expression">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>B22&lt;&gt;B25</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="18" type="expression">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>B22=B25</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="17" type="expression">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>B22="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="16" type="expression">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>OR(B22="",B22="Unexecuted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22 E1:XFD1">
-    <cfRule dxfId="2" priority="22" type="expression">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="21" type="expression">
+    <cfRule type="expression" dxfId="1" priority="21">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="20" type="expression">
+    <cfRule type="expression" dxfId="0" priority="20">
       <formula>OR(A1="",A1="Unexecuted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B36 B16:D17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B16:D17">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="USERCIIE@AD-INS.COM" r:id="rId1" ref="B12"/>
+    <hyperlink ref="B12" r:id="rId1" display="USERCIIE@AD-INS.COM"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -17935,8 +17935,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -18270,188 +18270,188 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule dxfId="3" priority="45" type="expression">
+    <cfRule type="expression" dxfId="3" priority="45">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="44" type="expression">
+    <cfRule type="expression" dxfId="2" priority="44">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="43" type="expression">
+    <cfRule type="expression" dxfId="1" priority="43">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="42" type="expression">
+    <cfRule type="expression" dxfId="0" priority="42">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule dxfId="3" priority="35" type="expression">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="34" type="expression">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="33" type="expression">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="32" type="expression">
+    <cfRule type="expression" dxfId="0" priority="32">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="30" type="expression">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="29" type="expression">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="28" type="expression">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="27" type="expression">
+    <cfRule type="expression" dxfId="0" priority="27">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="39" type="expression">
+    <cfRule type="expression" dxfId="3" priority="39">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="38" type="expression">
+    <cfRule type="expression" dxfId="2" priority="38">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="37" type="expression">
+    <cfRule type="expression" dxfId="1" priority="37">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="36" type="expression">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="26" type="expression">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="25" type="expression">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="24" type="expression">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="23" type="expression">
+    <cfRule type="expression" dxfId="0" priority="23">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="22" type="expression">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="21" type="expression">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="20" type="expression">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="19" type="expression">
+    <cfRule type="expression" dxfId="0" priority="19">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="17" type="expression">
+    <cfRule type="expression" dxfId="3" priority="17">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="16" type="expression">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="15" type="expression">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="14" type="expression">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="3" priority="13" type="expression">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="12" type="expression">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="11" type="expression">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="10" type="expression">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="9" type="expression">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule dxfId="4" priority="46" type="expression">
+    <cfRule type="expression" dxfId="4" priority="46">
       <formula>A$18="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule dxfId="4" priority="41" type="expression">
+    <cfRule type="expression" dxfId="4" priority="41">
       <formula>B$18="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule dxfId="4" priority="40" type="expression">
+    <cfRule type="expression" dxfId="4" priority="40">
       <formula>C$18="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule dxfId="4" priority="31" type="expression">
+    <cfRule type="expression" dxfId="4" priority="31">
       <formula>D$18="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule dxfId="4" priority="18" type="expression">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>E$18="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>F$18="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:F18 B20:F20" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:F18 B20:F20">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1"/>
+    <col min="2" max="5" width="29.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18834,100 +18834,100 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule dxfId="3" priority="20" type="expression">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="19" type="expression">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="18" type="expression">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="17" type="expression">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="9" type="expression">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule dxfId="4" priority="21" type="expression">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>A$28="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule dxfId="4" priority="16" type="expression">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>B$28="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>C$28="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D$28="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>E$28="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B28:E28 B30:E30" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:E28 B30:E30">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -18935,12 +18935,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.7090909090909" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.7272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.9090909090909" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.7272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.4545454545455" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="22.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -18983,7 +18983,7 @@
         <v>267</v>
       </c>
     </row>
-    <row customHeight="1" ht="31" r="3" spans="1:6">
+    <row r="3" ht="31" customHeight="1" spans="1:6">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="13" r="6" spans="1:6">
+    <row r="6" ht="13" customHeight="1" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>587</v>
       </c>
     </row>
-    <row ht="29" r="16" spans="1:6">
+    <row r="16" ht="29" spans="1:6">
       <c r="A16" s="25" t="s">
         <v>588</v>
       </c>
@@ -19245,7 +19245,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row customFormat="1" r="18" spans="1:6">
+    <row r="18" customFormat="1" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
@@ -19255,7 +19255,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row customFormat="1" r="19" spans="1:6">
+    <row r="19" customFormat="1" spans="1:6">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -19389,44 +19389,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="41" type="expression">
+    <cfRule type="expression" dxfId="0" priority="41">
       <formula>OR(A1="",A1="Unexecuted")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="42" type="expression">
+    <cfRule type="expression" dxfId="1" priority="42">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="43" type="expression">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>A1=A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="6" type="expression">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="7" type="expression">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="8" type="expression">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19 C19 D19 E19:F19" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 C19 D19 E19:F19">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -19434,8 +19434,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="6" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -19461,7 +19461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:5">
+    <row r="2" ht="15.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>594</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:7">
+    <row r="3" ht="29" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -19550,7 +19550,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row customFormat="1" r="8" spans="1:7">
+    <row r="8" customFormat="1" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>596</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:7">
+    <row r="9" customFormat="1" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -19877,7 +19877,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
     </row>
-    <row customFormat="1" r="25" s="32" spans="1:6">
+    <row r="25" s="32" customFormat="1" spans="1:6">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -19885,124 +19885,124 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
     </row>
-    <row customFormat="1" r="26" s="32"/>
-    <row customFormat="1" r="27" s="32"/>
+    <row r="26" s="32" customFormat="1"/>
+    <row r="27" s="32" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="21" type="expression">
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="20" type="expression">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="19" type="expression">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="18" type="expression">
+    <cfRule type="expression" dxfId="0" priority="18">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1">
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule dxfId="4" priority="22" type="expression">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>B$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule dxfId="4" priority="8" type="expression">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>C$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule dxfId="4" priority="6" type="expression">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>D$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule dxfId="4" priority="2" type="expression">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule dxfId="4" priority="4" type="expression">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>F$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule dxfId="4" priority="16" type="expression">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>G$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule dxfId="4" priority="17" type="expression">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule dxfId="4" priority="9" type="expression">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>B$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule dxfId="4" priority="7" type="expression">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>C$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>E$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule dxfId="4" priority="3" type="expression">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>F$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 G23">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>A$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18 C18 D18 E18 F18 G18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 C18 D18 E18 F18 G18">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20 C20 D20 E20 F20 G20 B22 C22 D22 E22 F22 G22 B24 C24 D24 E24 F24 G24" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 C20 D20 E20 F20 G20 B22 C22 D22 E22 F22 G22 B24 C24 D24 E24 F24 G24">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E3"/>
@@ -20010,8 +20010,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5454545454545" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="29.9090909090909" collapsed="true"/>
+    <col min="1" max="1" width="23.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="29.9090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -20034,7 +20034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:4">
+    <row r="2" ht="15.25" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -20342,133 +20342,133 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="26" type="expression">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="27" type="expression">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="28" type="expression">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="29" type="expression">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="3" priority="19" type="expression">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="18" type="expression">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="17" type="expression">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="16" type="expression">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="9" type="expression">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="0" priority="21" type="expression">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="22" type="expression">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="23" type="expression">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="24" type="expression">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>A$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>B$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>C$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>D$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>E$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>F$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19 C19 D19 E19 F19 B21 C21 D21 E21 F21" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 C19 D19 E19 F19 B21 C21 D21 E21 F21">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -20476,12 +20476,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.7090909090909" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.7272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.9090909090909" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="27.7272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.1818181818182" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="30.4545454545455" collapsed="true"/>
+    <col min="1" max="1" width="22.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="27.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="30.4545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20530,7 +20530,7 @@
         <v>603</v>
       </c>
     </row>
-    <row customHeight="1" ht="31" r="3" spans="1:8">
+    <row r="3" ht="31" customHeight="1" spans="1:8">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="13" r="6" spans="1:8">
+    <row r="6" ht="13" customHeight="1" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -20825,7 +20825,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row ht="43.5" r="16" spans="1:8">
+    <row r="16" ht="43.5" spans="1:8">
       <c r="A16" s="25" t="s">
         <v>588</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>614</v>
       </c>
     </row>
-    <row customFormat="1" r="17" spans="1:8">
+    <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="11" t="s">
         <v>172</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customFormat="1" r="18" spans="1:8">
+    <row r="18" customFormat="1" spans="1:8">
       <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
@@ -20889,7 +20889,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row customFormat="1" r="19" spans="1:8">
+    <row r="19" customFormat="1" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>173</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row customFormat="1" r="20" spans="1:8">
+    <row r="20" customFormat="1" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>174</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" r="21" spans="1:8">
+    <row r="21" customFormat="1" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row customFormat="1" r="22" spans="1:8">
+    <row r="22" customFormat="1" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" r="23" spans="1:8">
+    <row r="23" customFormat="1" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
@@ -21161,156 +21161,156 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="2" priority="37" type="expression">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="36" type="expression">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="35" type="expression">
+    <cfRule type="expression" dxfId="0" priority="35">
       <formula>OR(A1="",A1="Unexecuted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1">
-    <cfRule dxfId="0" priority="31" type="expression">
+    <cfRule type="expression" dxfId="0" priority="31">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="32" type="expression">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="33" type="expression">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="34" type="expression">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule dxfId="3" priority="8" type="expression">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>H1&lt;&gt;H4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="7" type="expression">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>H1=H4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="6" type="expression">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>H1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule dxfId="4" priority="24" type="expression">
+    <cfRule type="expression" dxfId="4" priority="24">
       <formula>C$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule dxfId="4" priority="12" type="expression">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>D$19="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>D$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule dxfId="4" priority="22" type="expression">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>E$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>F$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule dxfId="4" priority="18" type="expression">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>G$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule dxfId="4" priority="4" type="expression">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>H$19="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="2" type="expression">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>H$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule dxfId="4" priority="29" type="expression">
+    <cfRule type="expression" dxfId="4" priority="29">
       <formula>A$37="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="27" type="expression">
+    <cfRule type="expression" dxfId="4" priority="27">
       <formula>A$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule dxfId="4" priority="23" type="expression">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>C$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule dxfId="4" priority="11" type="expression">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>D$21="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="9" type="expression">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>D$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule dxfId="4" priority="21" type="expression">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>E$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule dxfId="4" priority="19" type="expression">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>F$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule dxfId="4" priority="17" type="expression">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>G$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule dxfId="4" priority="3" type="expression">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>H$21="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>H$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 E20:G20 I20:XFD20">
-    <cfRule dxfId="4" priority="26" type="expression">
+    <cfRule type="expression" dxfId="4" priority="26">
       <formula>A$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:C22 E22:G22 I22:XFD22">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>A$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17 C17 D17 E17 F17 G17 H17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 C17 D17 E17 F17 G17 H17">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19 C19 D19 E19 F19 G19 H19 B21 C21 D21 E21 F21 G21 H21 B23 C23 D23 E23 F23 G23 H23" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 C19 D19 E19 F19 G19 H19 B21 C21 D21 E21 F21 G21 H21 B23 C23 D23 E23 F23 G23 H23">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -21318,8 +21318,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -21625,63 +21625,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule dxfId="3" priority="29" type="expression">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="28" type="expression">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="27" type="expression">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="26" type="expression">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>A$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>B$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule dxfId="4" priority="24" type="expression">
+    <cfRule type="expression" dxfId="4" priority="24">
       <formula>C$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule dxfId="4" priority="14" type="expression">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>D$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule dxfId="4" priority="23" type="expression">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>E$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>F$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:F16 B18:F18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:F16 B18:F18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="$A10:$XFD12"/>
@@ -21689,8 +21689,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5727272727273" collapsed="true"/>
-    <col min="2" max="9" customWidth="true" width="29.8545454545455" collapsed="true"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -21745,7 +21745,7 @@
       </c>
       <c r="I2" s="15"/>
     </row>
-    <row ht="29" r="3" spans="1:9">
+    <row r="3" ht="29" spans="1:9">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -22203,113 +22203,113 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1">
-    <cfRule dxfId="0" priority="38" type="expression">
+    <cfRule type="expression" dxfId="0" priority="38">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="39" type="expression">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="40" type="expression">
+    <cfRule type="expression" dxfId="2" priority="40">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="41" type="expression">
+    <cfRule type="expression" dxfId="3" priority="41">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule dxfId="4" priority="32" type="expression">
+    <cfRule type="expression" dxfId="4" priority="32">
       <formula>A$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>D$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule dxfId="4" priority="19" type="expression">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>E$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule dxfId="4" priority="13" type="expression">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>F$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule dxfId="4" priority="7" type="expression">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>G$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>H$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule dxfId="4" priority="42" type="expression">
+    <cfRule type="expression" dxfId="4" priority="42">
       <formula>A$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule dxfId="4" priority="37" type="expression">
+    <cfRule type="expression" dxfId="4" priority="37">
       <formula>B$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule dxfId="4" priority="36" type="expression">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>C$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule dxfId="4" priority="26" type="expression">
+    <cfRule type="expression" dxfId="4" priority="26">
       <formula>D$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>E$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule dxfId="4" priority="14" type="expression">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>F$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule dxfId="4" priority="8" type="expression">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>G$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule dxfId="4" priority="2" type="expression">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>H$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule dxfId="4" priority="35" type="expression">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>I$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18 I18:XFD18">
-    <cfRule dxfId="4" priority="31" type="expression">
+    <cfRule type="expression" dxfId="4" priority="31">
       <formula>A$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:C17 D17 E17 F17 G17 H17 I17 B19:C19 D19 E19 F19 G19 H19 I19 B21:C21 D21 E21 F21 G21 H21 I21" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:C17 D17 E17 F17 G17 H17 I17 B19:C19 D19 E19 F19 G19 H19 I19 B21:C21 D21 E21 F21 G21 H21 I21">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -22317,8 +22317,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="9" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="9" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -22350,7 +22350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:8">
+    <row r="2" ht="15.25" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>642</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:9">
+    <row r="3" ht="29" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -22846,167 +22846,167 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="38" type="expression">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="37" type="expression">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="36" type="expression">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="35" type="expression">
+    <cfRule type="expression" dxfId="0" priority="35">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule dxfId="3" priority="34" type="expression">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="33" type="expression">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="32" type="expression">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="31" type="expression">
+    <cfRule type="expression" dxfId="0" priority="31">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule dxfId="3" priority="6" type="expression">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>I1&lt;&gt;I4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="5" type="expression">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>I1=I4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="4" type="expression">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>I1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="3" type="expression">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>OR(I1="",I1="Unexecuted",I1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule dxfId="4" priority="26" type="expression">
+    <cfRule type="expression" dxfId="4" priority="26">
       <formula>A$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule dxfId="4" priority="23" type="expression">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>D$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule dxfId="4" priority="19" type="expression">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>F$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule dxfId="4" priority="9" type="expression">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>G$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule dxfId="4" priority="7" type="expression">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>H$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>I$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>A$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule dxfId="4" priority="29" type="expression">
+    <cfRule type="expression" dxfId="4" priority="29">
       <formula>B$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule dxfId="4" priority="28" type="expression">
+    <cfRule type="expression" dxfId="4" priority="28">
       <formula>C$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule dxfId="4" priority="24" type="expression">
+    <cfRule type="expression" dxfId="4" priority="24">
       <formula>D$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule dxfId="4" priority="22" type="expression">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>E$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>F$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>G$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule dxfId="4" priority="8" type="expression">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>H$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule dxfId="4" priority="2" type="expression">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>I$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C21 J21:XFD21">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:F16 G16:H16 I16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:F16 G16:H16 I16">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:F17 G17:H17 I17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:F17 G17:H17 I17">
       <formula1>"WOMF, TAFS, BFI, QA, ADINSQA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20:C20 D20 E20 F20 G20 H20 I20 B22:C22 D22 E22 F22 G22 H22 I22 B24 C24 D24 E24 F24 G24 H24 I24" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:C20 D20 E20 F20 G20 H20 I20 B22:C22 D22 E22 F22 G22 H22 I22 B24 C24 D24 E24 F24 G24 H24 I24">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="WOMF" r:id="rId1" ref="D17"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="F17"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="H17"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="I17"/>
+    <hyperlink ref="D17" r:id="rId1" display="WOMF"/>
+    <hyperlink ref="F17" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="H17" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="I17" r:id="rId2" display="WOMF"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="$A23:$XFD23"/>
@@ -23014,8 +23014,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="11" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="11" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -23053,7 +23053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:10">
+    <row r="2" ht="15.25" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>175</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:11">
+    <row r="3" ht="29" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -23647,170 +23647,170 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="44" type="expression">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="43" type="expression">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="42" type="expression">
+    <cfRule type="expression" dxfId="1" priority="42">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="41" type="expression">
+    <cfRule type="expression" dxfId="0" priority="41">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:K1">
-    <cfRule dxfId="0" priority="37" type="expression">
+    <cfRule type="expression" dxfId="0" priority="37">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="38" type="expression">
+    <cfRule type="expression" dxfId="1" priority="38">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="39" type="expression">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="40" type="expression">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule dxfId="4" priority="33" type="expression">
+    <cfRule type="expression" dxfId="4" priority="33">
       <formula>A$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>D$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule dxfId="4" priority="27" type="expression">
+    <cfRule type="expression" dxfId="4" priority="27">
       <formula>F$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule dxfId="4" priority="21" type="expression">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>G$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule dxfId="4" priority="19" type="expression">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>H$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule dxfId="4" priority="7" type="expression">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>I$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>J$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule dxfId="4" priority="13" type="expression">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>K$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule dxfId="4" priority="36" type="expression">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>A$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="4" priority="35" type="expression">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>B$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule dxfId="4" priority="34" type="expression">
+    <cfRule type="expression" dxfId="4" priority="34">
       <formula>C$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule dxfId="4" priority="31" type="expression">
+    <cfRule type="expression" dxfId="4" priority="31">
       <formula>D$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule dxfId="4" priority="29" type="expression">
+    <cfRule type="expression" dxfId="4" priority="29">
       <formula>E$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule dxfId="4" priority="28" type="expression">
+    <cfRule type="expression" dxfId="4" priority="28">
       <formula>F$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule dxfId="4" priority="22" type="expression">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>G$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>H$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule dxfId="4" priority="8" type="expression">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>I$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule dxfId="4" priority="2" type="expression">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>J$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule dxfId="4" priority="14" type="expression">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>K$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 L20:XFD20">
-    <cfRule dxfId="4" priority="32" type="expression">
+    <cfRule type="expression" dxfId="4" priority="32">
       <formula>A$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B14:F14 G14:H14 I14 J14 K14" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:F14 G14:H14 I14 J14 K14">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15:F15 G15:H15 I15 J15 K15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:F15 G15:H15 I15 J15 K15">
       <formula1>"WOMF, TAFS, BFI, QA, ADINSQA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:C19 D19 E19 F19 G19 H19 I19 J19 K19 B21:C21 D21 E21 F21 G21 H21 I21 J21 K21 B23 C23 D23 E23 F23 G23 H23 I23 J23 K23" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:C19 D19 E19 F19 G19 H19 I19 J19 K19 B21:C21 D21 E21 F21 G21 H21 I21 J21 K21 B23 C23 D23 E23 F23 G23 H23 I23 J23 K23">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="WOMF" r:id="rId1" ref="D15"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="F15"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="H15"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="K15"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="I15"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="J15"/>
+    <hyperlink ref="D15" r:id="rId1" display="WOMF"/>
+    <hyperlink ref="F15" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="H15" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="K15" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="I15" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="J15" r:id="rId2" display="WOMF"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+    <sheetView topLeftCell="G3" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="11" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1"/>
+    <col min="2" max="11" width="24.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -23848,7 +23848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:10">
+    <row r="2" ht="15.25" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -23880,7 +23880,7 @@
         <v>674</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:11">
+    <row r="3" ht="29" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -23991,7 +23991,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -24023,7 +24023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>687</v>
       </c>
       <c r="K9" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -24262,37 +24262,37 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="13" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H17" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>689</v>
-      </c>
       <c r="J17" s="14" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -24427,7 +24427,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>40</v>
@@ -24479,186 +24479,186 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="52" type="expression">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="51" type="expression">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="50" type="expression">
+    <cfRule type="expression" dxfId="1" priority="50">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="49" type="expression">
+    <cfRule type="expression" dxfId="0" priority="49">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule dxfId="0" priority="45" type="expression">
+    <cfRule type="expression" dxfId="0" priority="45">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="46" type="expression">
+    <cfRule type="expression" dxfId="1" priority="46">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="47" type="expression">
+    <cfRule type="expression" dxfId="2" priority="47">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="48" type="expression">
+    <cfRule type="expression" dxfId="3" priority="48">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>J1&lt;&gt;J4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>J1=J4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>J1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(J1="",J1="Unexecuted",J1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule dxfId="3" priority="7" type="expression">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>K1&lt;&gt;K4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="6" type="expression">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>K1=K4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="5" type="expression">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>K1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="4" type="expression">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>OR(K1="",K1="Unexecuted",K1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule dxfId="4" priority="41" type="expression">
+    <cfRule type="expression" dxfId="4" priority="41">
       <formula>A$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule dxfId="4" priority="38" type="expression">
+    <cfRule type="expression" dxfId="4" priority="38">
       <formula>D$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule dxfId="4" priority="35" type="expression">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>F$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule dxfId="4" priority="29" type="expression">
+    <cfRule type="expression" dxfId="4" priority="29">
       <formula>I$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>J$19="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="8" type="expression">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>J$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule dxfId="4" priority="3" type="expression">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>K$19="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>K$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule dxfId="4" priority="44" type="expression">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>A$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="4" priority="43" type="expression">
+    <cfRule type="expression" dxfId="4" priority="43">
       <formula>B$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule dxfId="4" priority="42" type="expression">
+    <cfRule type="expression" dxfId="4" priority="42">
       <formula>C$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule dxfId="4" priority="39" type="expression">
+    <cfRule type="expression" dxfId="4" priority="39">
       <formula>D$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule dxfId="4" priority="37" type="expression">
+    <cfRule type="expression" dxfId="4" priority="37">
       <formula>E$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule dxfId="4" priority="36" type="expression">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>F$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>G$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>H$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>I$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule dxfId="4" priority="9" type="expression">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>J$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule dxfId="4" priority="2" type="expression">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>K$21="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:I20 L20:XFD20">
-    <cfRule dxfId="4" priority="40" type="expression">
+    <cfRule type="expression" dxfId="4" priority="40">
       <formula>A$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15:F15 G15 H15 I15 J15 K15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:F15 G15 H15 I15 J15 K15">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:F16 G16 H16 I16 J16 K16" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:F16 G16 H16 I16 J16 K16">
       <formula1>"WOMF, TAFS, BFI, QA, ADINSQA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:C19 D19 E19 F19 G19 H19 I19 J19 K19 B21:C21 D21 E21 F21 G21 H21 I21 J21 K21 B23:F23 G23 H23 I23 J23 K23 B24 C24 D24 E24 F24 G24 H24 I24 J24 K24" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:C19 D19 E19 F19 G19 H19 I19 J19 K19 B21:C21 D21 E21 F21 G21 H21 I21 J21 K21 B23:F23 G23 H23 I23 J23 K23 B24 C24 D24 E24 F24 G24 H24 I24 J24 K24">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="WOMF" r:id="rId1" ref="D16"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="F16"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="I16"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="G16"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="H16"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="J16"/>
-    <hyperlink display="WOMF" r:id="rId2" ref="K16"/>
+    <hyperlink ref="D16" r:id="rId1" display="WOMF"/>
+    <hyperlink ref="F16" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="I16" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="G16" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="H16" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="J16" r:id="rId2" display="WOMF"/>
+    <hyperlink ref="K16" r:id="rId2" display="WOMF"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -24666,8 +24666,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5454545454545" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="29.9090909090909" collapsed="true"/>
+    <col min="1" max="1" width="23.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="29.9090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -24690,7 +24690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:5">
+    <row r="2" ht="15.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -24707,7 +24707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:6">
+    <row r="3" ht="29" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -25369,162 +25369,162 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="32" type="expression">
+    <cfRule type="expression" dxfId="0" priority="32">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="33" type="expression">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="34" type="expression">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="35" type="expression">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="3" priority="24" type="expression">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="23" type="expression">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="22" type="expression">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="21" type="expression">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="18" type="expression">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="17" type="expression">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="16" type="expression">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="15" type="expression">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="12" type="expression">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="11" type="expression">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="10" type="expression">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="9" type="expression">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="6" type="expression">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="5" type="expression">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="4" type="expression">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="3" type="expression">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="0" priority="27" type="expression">
+    <cfRule type="expression" dxfId="0" priority="27">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="28" type="expression">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="29" type="expression">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="30" type="expression">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule dxfId="4" priority="20" type="expression">
-      <formula>'[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
+    <cfRule type="expression" dxfId="4" priority="20">
+      <formula>'D:\KIP''\Katalon Test\ATeSign\Excel\[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule dxfId="4" priority="14" type="expression">
-      <formula>'[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
+    <cfRule type="expression" dxfId="4" priority="14">
+      <formula>'D:\KIP''\Katalon Test\ATeSign\Excel\[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule dxfId="4" priority="8" type="expression">
-      <formula>'[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>'D:\KIP''\Katalon Test\ATeSign\Excel\[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule dxfId="4" priority="1" type="expression">
-      <formula>'[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>'D:\KIP''\Katalon Test\ATeSign\Excel\[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule dxfId="4" priority="26" type="expression">
-      <formula>'[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
+    <cfRule type="expression" dxfId="4" priority="26">
+      <formula>'D:\KIP''\Katalon Test\ATeSign\Excel\[2.1 Esign - Full API Services.xlsx]API Generate Invitation Link bu'!#REF!&lt;&gt;"Edit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule dxfId="4" priority="36" type="expression">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule dxfId="4" priority="19" type="expression">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>C$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule dxfId="4" priority="13" type="expression">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>D$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule dxfId="4" priority="7" type="expression">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>E$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule dxfId="4" priority="31" type="expression">
+    <cfRule type="expression" dxfId="4" priority="31">
       <formula>F$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B21 C21 D21 E21 F21" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 C21 D21 E21 F21">
       <formula1>"SMS, Email"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B38 C38 D38 E38 F38 B40 C40 D40 E40 F40" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38 C38 D38 E38 F38 B40 C40 D40 E40 F40">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -25532,8 +25532,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="6" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25556,7 +25556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:5">
+    <row r="2" ht="15.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:6">
+    <row r="3" ht="29" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -25806,143 +25806,143 @@
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
     </row>
-    <row customFormat="1" r="19" s="32" spans="1:1">
+    <row r="19" s="32" customFormat="1" spans="1:1">
       <c r="A19" s="27"/>
     </row>
-    <row customFormat="1" r="20" s="32"/>
-    <row customFormat="1" r="21" s="32"/>
+    <row r="20" s="32" customFormat="1"/>
+    <row r="21" s="32" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="26" type="expression">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="27" type="expression">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="28" type="expression">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="29" type="expression">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="3" priority="19" type="expression">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="18" type="expression">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="17" type="expression">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="16" type="expression">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="9" type="expression">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="0" priority="21" type="expression">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="22" type="expression">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="23" type="expression">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="24" type="expression">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>A$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>B$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>C$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>D$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>E$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>F$16="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16 C16 D16 E16 F16 B18 C18 D18 E18 F18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16 D16 E16 F16 B18 C18 D18 E18 F18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" r:id="rId1" ref="E13" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
+    <hyperlink ref="E13" r:id="rId1" display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A$1:E$1048576"/>
@@ -25950,8 +25950,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -25971,12 +25971,12 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:1">
+    <row r="2" ht="15.25" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row ht="43.5" r="3" spans="1:5">
+    <row r="3" ht="43.5" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -26123,92 +26123,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="18" type="expression">
+    <cfRule type="expression" dxfId="0" priority="18">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="19" type="expression">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="20" type="expression">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="21" type="expression">
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="3" priority="12" type="expression">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="11" type="expression">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="10" type="expression">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="9" type="expression">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="8" type="expression">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="7" type="expression">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="6" type="expression">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="5" type="expression">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="0" priority="13" type="expression">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="14" type="expression">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="15" type="expression">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="16" type="expression">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15 C15 D15 E15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 C15 D15 E15">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" r:id="rId1" ref="D13" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
+    <hyperlink ref="D13" r:id="rId1" display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G2"/>
@@ -26216,8 +26216,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="7" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -26243,7 +26243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:6">
+    <row r="2" ht="15.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -26260,7 +26260,7 @@
         <v>151</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:7">
+    <row r="3" ht="29" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -26586,145 +26586,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="31" type="expression">
+    <cfRule type="expression" dxfId="0" priority="31">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="32" type="expression">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="33" type="expression">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="34" type="expression">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="3" priority="24" type="expression">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="23" type="expression">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="22" type="expression">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="21" type="expression">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="19" type="expression">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="18" type="expression">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="17" type="expression">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="16" type="expression">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="14" type="expression">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="13" type="expression">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="12" type="expression">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="11" type="expression">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="0" priority="6" type="expression">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="7" type="expression">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="8" type="expression">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="9" type="expression">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule dxfId="3" priority="4" type="expression">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="3" type="expression">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule dxfId="4" priority="35" type="expression">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>A$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule dxfId="4" priority="25" type="expression">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>B$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>C$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>D$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule dxfId="4" priority="10" type="expression">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>E$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule dxfId="4" priority="5" type="expression">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>F$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule dxfId="4" priority="30" type="expression">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>G$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17 C17 D17 E17 F17 G17" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 C17 D17 E17 F17 G17">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19 C19 D19 E19 F19 G19 B21 C21 D21 E21 F21 G21" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 C19 D19 E19 F19 G19 B21 C21 D21 E21 F21 G21">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="https://gdkwebsvr:8080/i/reg?code=Qiw5KLtlFTTA3W5ZBqPoiQ%3D%3D" r:id="rId1" ref="G16"/>
-    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnncZenQ%3D%3D" r:id="rId2" ref="F16" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnncZenQ%3D%3D"/>
+    <hyperlink ref="G16" r:id="rId1" display="https://gdkwebsvr:8080/i/reg?code=Qiw5KLtlFTTA3W5ZBqPoiQ%3D%3D"/>
+    <hyperlink ref="F16" r:id="rId2" display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnncZenQ%3D%3D" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnncZenQ%3D%3D"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -26732,8 +26732,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="8" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="8" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26762,7 +26762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:6">
+    <row r="2" ht="15.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>177</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:8">
+    <row r="3" ht="29" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -27175,141 +27175,141 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="40" type="expression">
+    <cfRule type="expression" dxfId="0" priority="40">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="41" type="expression">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="42" type="expression">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="43" type="expression">
+    <cfRule type="expression" dxfId="3" priority="43">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="3" priority="33" type="expression">
+    <cfRule type="expression" dxfId="3" priority="33">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="32" type="expression">
+    <cfRule type="expression" dxfId="2" priority="32">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="31" type="expression">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="30" type="expression">
+    <cfRule type="expression" dxfId="0" priority="30">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:G1">
-    <cfRule dxfId="0" priority="25" type="expression">
+    <cfRule type="expression" dxfId="0" priority="25">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="26" type="expression">
+    <cfRule type="expression" dxfId="1" priority="26">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="27" type="expression">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="28" type="expression">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule dxfId="0" priority="35" type="expression">
+    <cfRule type="expression" dxfId="0" priority="35">
       <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="36" type="expression">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>H1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="37" type="expression">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>H1=H4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="38" type="expression">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>H1&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule dxfId="4" priority="44" type="expression">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>A$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule dxfId="4" priority="34" type="expression">
+    <cfRule type="expression" dxfId="4" priority="34">
       <formula>B$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule dxfId="4" priority="29" type="expression">
+    <cfRule type="expression" dxfId="4" priority="29">
       <formula>C$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule dxfId="4" priority="24" type="expression">
+    <cfRule type="expression" dxfId="4" priority="24">
       <formula>D$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule dxfId="4" priority="12" type="expression">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>E$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule dxfId="4" priority="6" type="expression">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>F$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule dxfId="4" priority="18" type="expression">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>G$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule dxfId="4" priority="39" type="expression">
+    <cfRule type="expression" dxfId="4" priority="39">
       <formula>H$17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule dxfId="5" priority="7" type="expression">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>E$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule dxfId="5" priority="1" type="expression">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>F$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule dxfId="5" priority="13" type="expression">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>G$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:D20 H20:XFD20">
-    <cfRule dxfId="5" priority="19" type="expression">
+    <cfRule type="expression" dxfId="5" priority="19">
       <formula>A$19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B15 C15 D15 E15 F15 G15 H15" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 C15 D15 E15 F15 G15 H15">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17 C17 D17 E17 F17 G17 H17 B19 C19 D19 E19 F19 G19 H19 B21 C21 D21 E21 F21 G21 H21" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 C17 D17 E17 F17 G17 H17 B19 C19 D19 E19 F19 G19 H19 B21 C21 D21 E21 F21 G21 H21">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" r:id="rId1" ref="F14" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
+    <hyperlink ref="F14" r:id="rId1" display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnnccZenQ%3D%3D"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
@@ -27317,8 +27317,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0909090909091" collapsed="true"/>
-    <col min="2" max="7" customWidth="true" width="24.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="24.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -27344,12 +27344,12 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.25" r="2" spans="1:1">
+    <row r="2" ht="15.25" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:7">
+    <row r="3" ht="29" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -27729,191 +27729,191 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="41" type="expression">
+    <cfRule type="expression" dxfId="0" priority="41">
       <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="42" type="expression">
+    <cfRule type="expression" dxfId="1" priority="42">
       <formula>A1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="43" type="expression">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>A1=A4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="44" type="expression">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>A1&lt;&gt;A4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule dxfId="3" priority="32" type="expression">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>B1&lt;&gt;B4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="31" type="expression">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>B1=B4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="30" type="expression">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>B1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="29" type="expression">
+    <cfRule type="expression" dxfId="0" priority="29">
       <formula>OR(B1="",B1="Unexecuted",B1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" priority="26" type="expression">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>C1&lt;&gt;C4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="25" type="expression">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>C1=C4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="24" type="expression">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>C1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="23" type="expression">
+    <cfRule type="expression" dxfId="0" priority="23">
       <formula>OR(C1="",C1="Unexecuted",C1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule dxfId="3" priority="19" type="expression">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>D1&lt;&gt;D4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="18" type="expression">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>D1=D4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="17" type="expression">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>D1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="16" type="expression">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>OR(D1="",D1="Unexecuted",D1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="0" priority="9" type="expression">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="10" type="expression">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>E1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="11" type="expression">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>E1=E4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="12" type="expression">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>E1&lt;&gt;E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule dxfId="3" priority="5" type="expression">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>F1&lt;&gt;F4</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="4" type="expression">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>F1=F4</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="3" type="expression">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>F1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="2" type="expression">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule dxfId="0" priority="36" type="expression">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>OR(G1="",G1="Unexecuted",G1="Status")</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="37" type="expression">
+    <cfRule type="expression" dxfId="1" priority="37">
       <formula>G1="WARNING"</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="38" type="expression">
+    <cfRule type="expression" dxfId="2" priority="38">
       <formula>G1=G4</formula>
     </cfRule>
-    <cfRule dxfId="3" priority="39" type="expression">
+    <cfRule type="expression" dxfId="3" priority="39">
       <formula>G1&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule dxfId="4" priority="45" type="expression">
+    <cfRule type="expression" dxfId="4" priority="45">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule dxfId="4" priority="33" type="expression">
+    <cfRule type="expression" dxfId="4" priority="33">
       <formula>B$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule dxfId="4" priority="27" type="expression">
+    <cfRule type="expression" dxfId="4" priority="27">
       <formula>C$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule dxfId="4" priority="20" type="expression">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>D$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule dxfId="4" priority="13" type="expression">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>E$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule dxfId="4" priority="6" type="expression">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>F$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule dxfId="4" priority="40" type="expression">
+    <cfRule type="expression" dxfId="4" priority="40">
       <formula>G$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule dxfId="4" priority="35" type="expression">
+    <cfRule type="expression" dxfId="4" priority="35">
       <formula>A$34="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule dxfId="4" priority="22" type="expression">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>C$34="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule dxfId="4" priority="15" type="expression">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>D$34="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="21" type="expression">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>D$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule dxfId="4" priority="8" type="expression">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>E$34="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="14" type="expression">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>E$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>F$34="Yes"</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="7" type="expression">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>F$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule dxfId="4" priority="34" type="expression">
+    <cfRule type="expression" dxfId="4" priority="34">
       <formula>G$34="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23 G23:XFD23">
-    <cfRule dxfId="4" priority="28" type="expression">
+    <cfRule type="expression" dxfId="4" priority="28">
       <formula>A$22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18 C18 D18 E18 F18 G18" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 C18 D18 E18 F18 G18">
       <formula1>"VIDA,PRIVY,DIGI,TEKENAJA"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B20 C20 D20 E20 F20 G20 B22 C22 D22 E22 F22 G22 B24 C24 D24 E24 F24 G24" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 C20 D20 E20 F20 G20 B22 C22 D22 E22 F22 G22 B24 C24 D24 E24 F24 G24">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2.1 Esign - API Only.xlsx
+++ b/Excel/2.1 Esign - API Only.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="65" activeTab="67"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="67" activeTab="70"/>
   </bookViews>
   <sheets>
     <sheet name="API Resend Activation Link" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,9 @@
     <sheet name="API Save Embed" sheetId="76" r:id="rId66"/>
     <sheet name="API Resend Sign Notif Embed" sheetId="77" r:id="rId67"/>
     <sheet name="API Reset OTP Code" sheetId="79" r:id="rId68"/>
+    <sheet name="API Business Line List" sheetId="80" r:id="rId69"/>
+    <sheet name="API List Tenant" sheetId="81" r:id="rId70"/>
+    <sheet name="API Get List Psre Setting" sheetId="82" r:id="rId71"/>
   </sheets>
   <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
@@ -147,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7958" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8325" uniqueCount="1169">
   <si>
     <t>Status</t>
   </si>
@@ -10762,6 +10765,1428 @@
   </si>
   <si>
     <t>*tenant code tidak berpengaruh di sini, tapi parameternya ada</t>
+  </si>
+  <si>
+    <t>Hit Normal tenant tafs</t>
+  </si>
+  <si>
+    <t>Hit Normal tenant wom</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "businessLineList": [
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "businessLineList": [
+        {
+            "businessLineCode": "MGBMTRKON",
+            "businessLineName": "MULTIGUNA BARANG MOTOR KONVENSIONAL"
+        },
+        {
+            "businessLineCode": "MBMOBKON",
+            "businessLineName": "MULTIGUNA BARANG MOBIL KONVENSIONAL"
+        },
+        {
+            "businessLineCode": "MULTI",
+            "businessLineName": "MULTIGUNA BARANG MOTOR KONVENSIONAL"
+        },
+        {
+            "businessLineCode": "MBRMHKON",
+            "businessLineName": "MULTIGUNA BARANG RUMAH KONVENSIONAL"
+        },
+        {
+            "businessLineCode": "ESIGN",
+            "businessLineName": "ESIGNHUB"
+        },
+        {
+            "businessLineCode": "BLINES",
+            "businessLineName": "LINECODE"
+        },
+        {
+            "businessLineCode": "VIDALAVIVA",
+            "businessLineName": "VIDALAVIVAAT"
+        },
+        {
+            "businessLineCode": "VIDASAT3",
+            "businessLineName": "VIDASAT3"
+        },
+        {
+            "businessLineCode": "ATBLINE1",
+            "businessLineName": "ATBLINE SATU"
+        },
+        {
+            "businessLineCode": "ATBLINE2",
+            "businessLineName": "ATBLINE DUA"
+        },
+        {
+            "businessLineCode": "ATBLINE3",
+            "businessLineName": "ATBLINE TIGA"
+        },
+        {
+            "businessLineCode": "ATBLINE4",
+            "businessLineName": "ATBLINE EMPAT"
+        },
+        {
+            "businessLineCode": "BLAT1",
+            "businessLineName": "BUSINESS LINE KATALON 1"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "businessLineList": [
+        {
+            "businessLineCode": "MGBMTRKON",
+            "businessLineName": "MULTIGUNA BARANG MOTOR KONVENSIONAL"
+        },
+        {
+            "businessLineCode": "MGJMTRKON",
+            "businessLineName": "MULTIGUNA JASA MOTOR KONVENSIONAL"
+        },
+        {
+            "businessLineCode": "MGJMBLKON",
+            "businessLineName": "MULTIGUNA JASA MOBIL KONVENSIONAL"
+        },
+        {
+            "businessLineCode": "MDLMBL",
+            "businessLineName": "FASILITAS MODAL USAHA MOBIL"
+        },
+        {
+            "businessLineCode": "SLBINV",
+            "businessLineName": "SALES AND LEASEBACK INVESTASI"
+        },
+        {
+            "businessLineCode": "FASDANMTR",
+            "businessLineName": "FASILITAS DANA MOTOR"
+        },
+        {
+            "businessLineCode": "FASDANMBL",
+            "businessLineName": "FASILITAS DANA MOBIL"
+        },
+        {
+            "businessLineCode": "MGBMTRSYR",
+            "businessLineName": "MULTIGUNA BARANG MOTOR SYARIAH"
+        },
+        {
+            "businessLineCode": "SLBMBL",
+            "businessLineName": "SALES AND LEASEBACK MODAL KERJA"
+        },
+        {
+            "businessLineCode": "DEMO1",
+            "businessLineName": "BUSINESS LINE DEMO 1"
+        },
+        {
+            "businessLineCode": "TEST BL 1",
+            "businessLineName": "BUSINESS LINE 1"
+        },
+        {
+            "businessLineCode": "TEST BL 12",
+            "businessLineName": "BUSINESS LINE 1"
+        },
+        {
+            "businessLineCode": "ESIGN2",
+            "businessLineName": "ESIGNHUB1"
+        },
+        {
+            "businessLineCode": "ESIGN",
+            "businessLineName": "ESIGNHUB"
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": "ESIGNHUB"
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": "ESIGNHUB"
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "",
+            "businessLineName": ""
+        },
+        {
+            "businessLineCode": "MULTI",
+            "businessLineName": "MULTIGUNA BARANG MOTOR KONVENSIONAL"
+        },
+        {
+            "businessLineCode": "APIFULL",
+            "businessLineName": "APIFULLSERV"
+        },
+        {
+            "businessLineCode": "VIDALAVIVA",
+            "businessLineName": "VIDALAVIVAAT"
+        },
+        {
+            "businessLineCode": "VIDASAT",
+            "businessLineName": "VIDASAT"
+        },
+        {
+            "businessLineCode": "VIDASAT1",
+            "businessLineName": "VIDASAT1"
+        },
+        {
+            "businessLineCode": "VIDASAT2",
+            "businessLineName": "VIDASAT2"
+        },
+        {
+            "businessLineCode": "VIDASAT3",
+            "businessLineName": "VIDASAT3"
+        },
+        {
+            "businessLineCode": "ASGRD",
+            "businessLineName": "ASGARD"
+        },
+        {
+            "businessLineCode": "ASGRDV2",
+            "businessLineName": "ASGARDV2"
+        },
+        {
+            "businessLineCode": "MBMOBKON",
+            "businessLineName": "MULTIGUNA BARANG MOBIL KONVENSIONAL"
+        },
+        {
+            "businessLineCode": "BLINES",
+            "businessLineName": "LINECODE"
+        },
+        {
+            "businessLineCode": "SPORTS",
+            "businessLineName": "ELECTRONIC SPORTS"
+        },
+        {
+            "businessLineCode": "ESPORTS",
+            "businessLineName": "SPORTS ELECTRONIC"
+        },
+        {
+            "businessLineCode": "BLAT1",
+            "businessLineName": "BUSINESS LINE KATALON 1"
+        },
+        {
+            "businessLineCode": "AT ESIGNHUB 1",
+            "businessLineName": "AT ESIGNHUB 1"
+        },
+        {
+            "businessLineCode": "AT ESIGNHUB 2",
+            "businessLineName": "AT ESIGNHUB 2"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "businessLineList": [
+        {
+            "businessLineCode": "ESIGN",
+            "businessLineName": "ESIGNHUB"
+        },
+        {
+            "businessLineCode": "DEMO1",
+            "businessLineName": "DEMO MULTIGUNA 1"
+        },
+        {
+            "businessLineCode": "MGBMTRKON",
+            "businessLineName": "MULTIGUNA BARANG MOTOR KONVENSIONAL"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>0.623 second</t>
+  </si>
+  <si>
+    <t>*jika tenant code salah/kosong, balikannya tetap sukses tapi isi value business list nya kosong</t>
+  </si>
+  <si>
+    <t>Hit Normal admin esign</t>
+  </si>
+  <si>
+    <t>Hit tanpa input page</t>
+  </si>
+  <si>
+    <t>Hit dengan filter page dan tenant name terisi</t>
+  </si>
+  <si>
+    <t>Hit dengan filter page dan is active 0</t>
+  </si>
+  <si>
+    <t>Hit dengan semua filter aktif</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "tenantList": [
+        {
+            "tenantName": "WOM Finance",
+            "tenantCode": "WOMF",
+            "isActive": "1"
+        },
+        {
+            "tenantName": "NEW FINANCE",
+            "tenantCode": "ADIRA",
+            "isActive": "1"
+        },
+        {
+            "tenantName": "DEMO OCR ADINS",
+            "tenantCode": "ABC",
+            "isActive": "1"
+        },
+        {
+            "tenantName": "ADINS",
+            "tenantCode": "ADINS",
+            "isActive": "1"
+        },
+        {
+            "tenantName": "SMS Finance",
+            "tenantCode": "SMSF",
+            "isActive": "1"
+        },
+        {
+            "tenantName": "BRI Finance",
+            "tenantCode": "BRIF",
+            "isActive": "1"
+        },
+        {
+            "tenantName": "Clipan Finance Indonesia",
+            "tenantCode": "CFI",
+            "isActive": "1"
+        },
+        {
+            "tenantName": "BCA Finance",
+            "tenantCode": "BCAMF",
+            "isActive": "1"
+        },
+        {
+            "tenantName": "SIT1 Finance",
+            "tenantCode": "SIT1",
+            "isActive": "1"
+        },
+        {
+            "tenantName": "SIT2 Finance",
+            "tenantCode": "SIT2",
+            "isActive": "1"
+        }
+    ],
+    "totalResult": 26,
+    "totalPage": 3,
+    "page": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "tenantList": [
+    ],
+    "totalResult": 26,
+    "totalPage": 3,
+    "page": 0
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "tenantList": [
+        {
+            "tenantName": "BRI Finance",
+            "tenantCode": "BRIF",
+            "isActive": "1"
+        }
+    ],
+    "totalResult": 1,
+    "totalPage": 1,
+    "page": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "tenantList": [
+        {
+            "tenantName": "test data aja",
+            "tenantCode": "TDA001",
+            "isActive": "0"
+        }
+    ],
+    "totalResult": 1,
+    "totalPage": 1,
+    "page": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "tenantList": [
+        {
+            "tenantName": "WOM Finance",
+            "tenantCode": "WOMF",
+            "isActive": "1"
+        }
+    ],
+    "totalResult": 1,
+    "totalPage": 1,
+    "page": 1
+}</t>
+  </si>
+  <si>
+    <t>admesign</t>
+  </si>
+  <si>
+    <t>Tenant Name*</t>
+  </si>
+  <si>
+    <t>BRI</t>
+  </si>
+  <si>
+    <t>WOM</t>
+  </si>
+  <si>
+    <t>Status*</t>
+  </si>
+  <si>
+    <t>*jika tenant code salah/kosong, tidak berpengaruh terhadap hasil</t>
+  </si>
+  <si>
+    <t>**tenant name hanya bisa digunakan untuk nama depan tenant, dan by default tenant_name di db harus huruf KAPITAL</t>
+  </si>
+  <si>
+    <t>Hit tanpa filter page</t>
+  </si>
+  <si>
+    <t>Hit kombinasi filter page dan vendor code</t>
+  </si>
+  <si>
+    <t>Hit kombinasi filter page, vendor code, vendor name</t>
+  </si>
+  <si>
+    <t>Hit kombinasi filter page, vendor code, vendor name, status active</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "page": 1,
+    "totalPage": 1,
+    "totalResult": 6,
+    "getListPSrESetting": [
+        {
+            "vendorName": "DIGISIGN",
+            "vendorCode": "DIGI",
+            "status": "0",
+            "statusOperating": "1",
+            "paymentSignType": "Payment by Sign And Doc",
+            "code": "MIX"
+        },
+        {
+            "vendorName": "PRIVY",
+            "vendorCode": "PRIVY",
+            "status": "1",
+            "statusOperating": "1",
+            "paymentSignType": "Payment by Sign only",
+            "code": "SIGN_ONLY"
+        },
+        {
+            "vendorName": "SIGNAJ",
+            "vendorCode": "SIGNAJ",
+            "status": "0",
+            "statusOperating": "0",
+            "paymentSignType": "Payment by Sign And Doc",
+            "code": "MIX"
+        },
+        {
+            "vendorName": "TEKENAJA",
+            "vendorCode": "TKNAJ",
+            "status": "1",
+            "statusOperating": "1",
+            "paymentSignType": "Payment by Sign And Doc",
+            "code": "MIX"
+        },
+        {
+            "vendorName": "TEST VENDOR PSRE",
+            "vendorCode": "TEST",
+            "status": "1",
+            "statusOperating": "1",
+            "paymentSignType": "Payment by Doc only",
+            "code": "DOC_ONLY"
+        },
+        {
+            "vendorName": "VIDA",
+            "vendorCode": "VIDA",
+            "status": "1",
+            "statusOperating": "1",
+            "paymentSignType": "Payment by Sign only",
+            "code": "SIGN_ONLY"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "page": 0,
+    "totalPage": 1,
+    "totalResult": 6,
+    "getListPSrESetting": [
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "page": 1,
+    "totalPage": 1,
+    "totalResult": 1,
+    "getListPSrESetting": [
+        {
+            "vendorName": "TEKENAJA",
+            "vendorCode": "TKNAJ",
+            "status": "1",
+            "statusOperating": "1",
+            "paymentSignType": "Payment by Sign And Doc",
+            "code": "MIX"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "page": 1,
+    "totalPage": 1,
+    "totalResult": 1,
+    "getListPSrESetting": [
+        {
+            "vendorName": "DIGISIGN",
+            "vendorCode": "DIGI",
+            "status": "0",
+            "statusOperating": "1",
+            "paymentSignType": "Payment by Sign And Doc",
+            "code": "MIX"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "page": 1,
+    "totalPage": 1,
+    "totalResult": 1,
+    "getListPSrESetting": [
+        {
+            "vendorName": "VIDA",
+            "vendorCode": "VIDA",
+            "status": "1",
+            "statusOperating": "1",
+            "paymentSignType": "Payment by Sign only",
+            "code": "SIGN_ONLY"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": {
+        "code": 0
+    },
+    "page": 1,
+    "totalPage": 1,
+    "totalResult": 1,
+    "getListPSrESetting": [
+        {
+            "vendorName": "PRIVY",
+            "vendorCode": "PRIVY",
+            "status": "1",
+            "statusOperating": "1",
+            "paymentSignType": "Payment by Sign only",
+            "code": "SIGN_ONLY"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>0.296 second</t>
+  </si>
+  <si>
+    <t>TKN</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>VID</t>
+  </si>
+  <si>
+    <t>IVY</t>
+  </si>
+  <si>
+    <t>VendorName*</t>
+  </si>
+  <si>
+    <t>PRIV</t>
+  </si>
+  <si>
+    <t>Status Vendor*</t>
+  </si>
+  <si>
+    <t>Status Operating*</t>
+  </si>
+  <si>
+    <t>*jika tenant code salah/kosong, balikannya tetap sukses tapi list Psre dari API kosong</t>
+  </si>
+  <si>
+    <t>** vendor code dan vendor name boleh diisi beberapa huruf nya saja, misal PRIVY, bisa diketik 'IV' atau 'RIVY'</t>
   </si>
 </sst>
 </file>
@@ -10983,12 +12408,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -48156,7 +49581,7 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -49314,7 +50739,7 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
@@ -49864,7 +51289,7 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -50882,7 +52307,7 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -51617,14 +53042,14 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.5727272727273" customWidth="1"/>
-    <col min="2" max="6" width="29.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="6" width="29.8545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -52034,6 +53459,440 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:F19 B21:F21">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="29.8545454545455" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8">
+        <f>COUNTIFS($A6:$A31,"*$*",B6:B31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <f>COUNTIFS($A6:$A31,"*$*",C6:C31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f>COUNTIFS($A6:$A31,"*$*",D6:D31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <f>COUNTIFS($A6:$A31,"*$*",E6:E31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <f>COUNTIFS($A6:$A31,"*$*",F6:F31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <f>COUNTIFS($A6:$A31,"*$*",G6:G31,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>823</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>823</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>823</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>823</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>F1&lt;&gt;F4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>F1=F4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>F1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>OR(F1="",F1="Unexecuted",F1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="4" priority="15">
+      <formula>A$16="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>B$16="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>C$16="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>D$16="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>E$16="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>F$16="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>G$16="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1 G1">
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>A1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="13">
+      <formula>A1=A4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>A1&lt;&gt;A4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:E16 F16 G16 B18:E18 F18 G18">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -52502,6 +54361,1650 @@
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" display="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnncZenQ%3D%3D" tooltip="http://gdkwebsvr:8080/i/reg?code=MZlysT4MmUOcKCnncZenQ%3D%3D"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="12" width="29.8545454545455" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" ht="29" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",B6:B34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",C6:C34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",D6:D34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",E6:E34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",F6:F34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",G6:G34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",H6:H34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",I6:I34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",J6:J34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",K6:K34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <f>COUNTIFS($A6:$A34,"*$*",L6:L34,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>823</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>E1&lt;&gt;E4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>E1=E4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="23">
+      <formula>E1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>OR(E1="",E1="Unexecuted",E1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>I1&lt;&gt;I4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>I1=I4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="18">
+      <formula>I1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>OR(I1="",I1="Unexecuted",I1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>J1&lt;&gt;J4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>J1=J4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="13">
+      <formula>J1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>OR(J1="",J1="Unexecuted",J1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>K1&lt;&gt;K4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>K1=K4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>K1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>OR(K1="",K1="Unexecuted",K1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>L1&lt;&gt;L4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>L1=L4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>L1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>OR(L1="",L1="Unexecuted",L1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="expression" dxfId="4" priority="40">
+      <formula>A$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="4" priority="35">
+      <formula>B$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="4" priority="34">
+      <formula>C$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="4" priority="32">
+      <formula>D$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="4" priority="21">
+      <formula>E$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="4" priority="33">
+      <formula>F$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" dxfId="4" priority="26">
+      <formula>G$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="4" priority="31">
+      <formula>H$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="4" priority="16">
+      <formula>I$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="expression" dxfId="4" priority="11">
+      <formula>J$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>K$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>L$19="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:D1 F1:H1">
+    <cfRule type="expression" dxfId="3" priority="36">
+      <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="37">
+      <formula>A1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>A1=A4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="39">
+      <formula>A1&lt;&gt;A4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:L16">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:D19 E19 F19 G19 H19 I19 J19 K19 L19 B21:D21 E21 F21 G21 H21 I21 J21 K21 L21">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5727272727273" customWidth="1"/>
+    <col min="2" max="12" width="29.8545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" ht="29" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",B6:B36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",C6:C36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",D6:D36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",E6:E36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",F6:F36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",G6:G36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",H6:H36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",I6:I36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",J6:J36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",K6:K36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <f>COUNTIFS($A6:$A36,"*$*",L6:L36,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>823</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L11" s="77" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" dxfId="0" priority="39">
+      <formula>A1&lt;&gt;A4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>A1=A4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="37">
+      <formula>A1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="36">
+      <formula>OR(A1="",A1="Unexecuted",A1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>H1&lt;&gt;H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>H1=H4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="23">
+      <formula>H1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>OR(H1="",H1="Unexecuted",H1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1">
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>I1&lt;&gt;I4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>I1=I4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="18">
+      <formula>I1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17">
+      <formula>OR(I1="",I1="Unexecuted",I1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>K1&lt;&gt;K4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>K1=K4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>K1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>OR(K1="",K1="Unexecuted",K1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>L1&lt;&gt;L4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>L1=L4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>L1="WARNING"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>OR(L1="",L1="Unexecuted",L1="Status")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="expression" dxfId="4" priority="40">
+      <formula>A$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="4" priority="35">
+      <formula>B$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="4" priority="34">
+      <formula>C$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="4" priority="32">
+      <formula>D$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="4" priority="33">
+      <formula>E$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="4" priority="26">
+      <formula>F$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="4" priority="31">
+      <formula>G$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="4" priority="21">
+      <formula>H$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="4" priority="16">
+      <formula>I$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="expression" dxfId="4" priority="11">
+      <formula>J$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>K$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>L$21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:E21 F21 G21 H21 I21 J21 K21 L21 B23:E23 F23 G23 H23 I23 J23 K23 L23">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17:L18 B17:K18">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
